--- a/inst/extdata/MetricScoring.xlsx
+++ b/inst/extdata/MetricScoring.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tetratechinc-my.sharepoint.com/personal/ben_block_tetratech_com/Documents/GitHub/BioMonTools/inst/extdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tetratechinc-my.sharepoint.com/personal/ben_block_tetratech_com/Documents/GitHub/BioMonTools_BenB/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="6_{E1038586-8D02-4FF7-859A-8FC7A176EA6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{92C609DC-CCE0-4D0F-8770-E331A4D4B8D1}"/>
+  <xr:revisionPtr revIDLastSave="200" documentId="6_{E1038586-8D02-4FF7-859A-8FC7A176EA6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F1E4719-5FC6-454E-A3C7-2E98B7B41935}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1671,7 +1671,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9588" uniqueCount="997">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9937" uniqueCount="1037">
   <si>
     <t>Erik.Leppo@tetratech.com</t>
   </si>
@@ -4662,6 +4662,126 @@
   </si>
   <si>
     <t>Updated MIEGLE 2020 WetWide pi_ffg_scrap to inc rather than dec</t>
+  </si>
+  <si>
+    <t>Addded MI EGLE 2025 preliminary indices</t>
+  </si>
+  <si>
+    <t>EGLE_2025</t>
+  </si>
+  <si>
+    <t>pt_habit_sprawl</t>
+  </si>
+  <si>
+    <t>x_Evenness</t>
+  </si>
+  <si>
+    <t>100 * (6 - metric) / (6 - 3.05)</t>
+  </si>
+  <si>
+    <t>100 * (metric - 8.77) / (25.88 - 8.77)</t>
+  </si>
+  <si>
+    <t>100 * (metric - 26.72) / (59.82 - 26.72)</t>
+  </si>
+  <si>
+    <t>100 * (metric - 0.47) / (0.82 - 0.47)</t>
+  </si>
+  <si>
+    <t>pi_Insect</t>
+  </si>
+  <si>
+    <t>100 * (42.07 - metric) / (42.07 - 10.71)</t>
+  </si>
+  <si>
+    <t>100 * (10.35 - metric) / (10.35 - 2)</t>
+  </si>
+  <si>
+    <t>100 * (metric - 28.12) / (61.5 - 28.12)</t>
+  </si>
+  <si>
+    <t>100 * (metric - 37.84) / (98.19 - 37.84)</t>
+  </si>
+  <si>
+    <t>100 * (metric - 12.5) / (27.16 - 12.5)</t>
+  </si>
+  <si>
+    <t>100 * (metric - 65.19) / (89.61 - 65.19)</t>
+  </si>
+  <si>
+    <t>100 * (metric - 4) / (12 - 4)</t>
+  </si>
+  <si>
+    <t>100 * (metric - 7) / (16.2 - 7)</t>
+  </si>
+  <si>
+    <t>100 * (metric - 28.23) / (53.38 - 28.23)</t>
+  </si>
+  <si>
+    <t>100 * (metric - 19.29) / (42.3 - 19.29)</t>
+  </si>
+  <si>
+    <t>100 * (6.16 - metric) / (6.16 - 3.26)</t>
+  </si>
+  <si>
+    <t>100 * (metric - 31.97) / (58.18 - 31.97)</t>
+  </si>
+  <si>
+    <t>100 * (metric - 3.56) / (31.95 - 3.56)</t>
+  </si>
+  <si>
+    <t>100 * (metric - 66.67) / (87.87 - 66.67)</t>
+  </si>
+  <si>
+    <t>100 * (metric - 3.02) / (35.81 - 3.02)</t>
+  </si>
+  <si>
+    <t>nt_habit_burrow</t>
+  </si>
+  <si>
+    <t>100 * (metric - 1.55) / (10 - 1.55)</t>
+  </si>
+  <si>
+    <t>100 * (metric - 36.99) / (76.47 - 36.99)</t>
+  </si>
+  <si>
+    <t>100 * (metric - 3) / (11 - 3)</t>
+  </si>
+  <si>
+    <t>100 * (metric - 1.55) / (6.45 - 1.55)</t>
+  </si>
+  <si>
+    <t>nt_ffg_filt</t>
+  </si>
+  <si>
+    <t>100 * (6.74 - metric) / (6.74 - 3.93)</t>
+  </si>
+  <si>
+    <t>100 * (metric - 52.22) / (84.77 - 52.22)</t>
+  </si>
+  <si>
+    <t>100 * (metric - 0.35) / (5 - 0.35)</t>
+  </si>
+  <si>
+    <t>100 * (metric - 1) / (6 - 1)</t>
+  </si>
+  <si>
+    <t>nt_ECT</t>
+  </si>
+  <si>
+    <t>100 * (7.08 - metric) / (7.08 - 4.43)</t>
+  </si>
+  <si>
+    <t>100 * (metric - 50) / (82.19 - 50)</t>
+  </si>
+  <si>
+    <t>100 * (metric - 1.9) / (14.1 - 1.9)</t>
+  </si>
+  <si>
+    <t>100 * (metric - 2) / (12 - 2)</t>
+  </si>
+  <si>
+    <t>100 * (metric - 1) / (7 - 1)</t>
   </si>
 </sst>
 </file>
@@ -5420,41 +5540,11 @@
     </dxf>
     <dxf>
       <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5520,61 +5610,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color auto="1"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5640,21 +5680,21 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color auto="1"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5700,21 +5740,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C5700"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5740,71 +5770,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color auto="1"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5920,26 +5890,6 @@
     </dxf>
     <dxf>
       <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -5955,16 +5905,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6040,6 +5980,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color auto="1"/>
       </font>
       <fill>
@@ -6055,16 +6005,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6130,11 +6070,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C5700"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6150,11 +6090,31 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6170,6 +6130,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color auto="1"/>
       </font>
       <fill>
@@ -6180,11 +6150,161 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6538,11 +6658,11 @@
   <sheetPr codeName="sh_Notes">
     <tabColor theme="1" tint="0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:E110"/>
+  <dimension ref="A1:E111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A111" sqref="A111"/>
+      <selection pane="bottomLeft" activeCell="A112" sqref="A112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6588,7 +6708,7 @@
       </c>
       <c r="B7" s="7" t="str">
         <f ca="1">LEFT(CELL("filename",B7),FIND("]",CELL("filename",B7)))</f>
-        <v>https://tetratechinc-my.sharepoint.com/personal/ben_block_tetratech_com/Documents/GitHub/BioMonTools/inst/extdata/[MetricScoring.xlsx]</v>
+        <v>https://tetratechinc-my.sharepoint.com/personal/ben_block_tetratech_com/Documents/GitHub/BioMonTools_BenB/inst/extdata/[MetricScoring.xlsx]</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -7341,6 +7461,14 @@
       </c>
       <c r="B110" t="s">
         <v>996</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="5">
+        <v>45986</v>
+      </c>
+      <c r="B111" t="s">
+        <v>997</v>
       </c>
     </row>
   </sheetData>
@@ -7368,17 +7496,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93A70181-B22C-4671-9C22-4B8DA5FE66AB}">
-  <sheetPr codeName="Sheet1" filterMode="1">
+  <sheetPr codeName="Sheet1">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:AP767"/>
+  <dimension ref="A1:AP800"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D355" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D776" activePane="bottomRight" state="frozen"/>
       <selection activeCell="Q1" sqref="Q1:V1"/>
       <selection pane="topRight" activeCell="Q1" sqref="Q1:V1"/>
       <selection pane="bottomLeft" activeCell="Q1" sqref="Q1:V1"/>
-      <selection pane="bottomRight" activeCell="D368" sqref="D368"/>
+      <selection pane="bottomRight" activeCell="A794" sqref="A794"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -7391,7 +7519,7 @@
     <col min="6" max="6" width="13.42578125" customWidth="1"/>
     <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.85546875" customWidth="1"/>
-    <col min="9" max="9" width="38.5703125" customWidth="1"/>
+    <col min="9" max="9" width="38.5703125" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="40.42578125" customWidth="1"/>
     <col min="11" max="11" width="13.5703125" customWidth="1"/>
     <col min="12" max="12" width="29.7109375" bestFit="1" customWidth="1"/>
@@ -7552,7 +7680,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="2" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>524</v>
       </c>
@@ -7584,7 +7712,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="3" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>524</v>
       </c>
@@ -7616,7 +7744,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="4" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>524</v>
       </c>
@@ -7648,7 +7776,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="5" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>524</v>
       </c>
@@ -7680,7 +7808,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="6" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>524</v>
       </c>
@@ -7712,7 +7840,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="7" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>524</v>
       </c>
@@ -7744,7 +7872,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="8" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>524</v>
       </c>
@@ -7776,7 +7904,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="9" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>524</v>
       </c>
@@ -7808,7 +7936,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="10" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>524</v>
       </c>
@@ -7840,7 +7968,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="11" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>524</v>
       </c>
@@ -7872,7 +8000,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="12" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>524</v>
       </c>
@@ -7904,7 +8032,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="13" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>524</v>
       </c>
@@ -7936,7 +8064,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="14" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>524</v>
       </c>
@@ -7968,7 +8096,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="15" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>524</v>
       </c>
@@ -8000,7 +8128,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="16" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>524</v>
       </c>
@@ -8032,7 +8160,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>524</v>
       </c>
@@ -8064,7 +8192,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>524</v>
       </c>
@@ -8096,7 +8224,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>524</v>
       </c>
@@ -8128,7 +8256,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>524</v>
       </c>
@@ -8160,7 +8288,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>524</v>
       </c>
@@ -8192,7 +8320,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>524</v>
       </c>
@@ -8224,7 +8352,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>525</v>
       </c>
@@ -8256,7 +8384,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>525</v>
       </c>
@@ -8288,7 +8416,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>525</v>
       </c>
@@ -8320,7 +8448,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>525</v>
       </c>
@@ -8352,7 +8480,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>525</v>
       </c>
@@ -8384,7 +8512,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>525</v>
       </c>
@@ -8416,7 +8544,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>525</v>
       </c>
@@ -8448,7 +8576,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>525</v>
       </c>
@@ -8480,7 +8608,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>525</v>
       </c>
@@ -8512,7 +8640,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>525</v>
       </c>
@@ -8544,7 +8672,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>525</v>
       </c>
@@ -8576,7 +8704,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>525</v>
       </c>
@@ -8608,7 +8736,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>525</v>
       </c>
@@ -8640,7 +8768,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>525</v>
       </c>
@@ -8672,7 +8800,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>525</v>
       </c>
@@ -8704,7 +8832,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>525</v>
       </c>
@@ -8736,7 +8864,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>525</v>
       </c>
@@ -8768,7 +8896,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>525</v>
       </c>
@@ -8800,7 +8928,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>525</v>
       </c>
@@ -8832,7 +8960,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>525</v>
       </c>
@@ -8864,7 +8992,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>525</v>
       </c>
@@ -8896,7 +9024,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>525</v>
       </c>
@@ -8928,7 +9056,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>526</v>
       </c>
@@ -8960,7 +9088,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>526</v>
       </c>
@@ -8992,7 +9120,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>526</v>
       </c>
@@ -9024,7 +9152,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>526</v>
       </c>
@@ -9056,7 +9184,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>526</v>
       </c>
@@ -9088,7 +9216,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>526</v>
       </c>
@@ -9120,7 +9248,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>526</v>
       </c>
@@ -9152,7 +9280,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>526</v>
       </c>
@@ -9184,7 +9312,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>526</v>
       </c>
@@ -9216,7 +9344,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>526</v>
       </c>
@@ -9248,7 +9376,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>526</v>
       </c>
@@ -9280,7 +9408,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>526</v>
       </c>
@@ -9312,7 +9440,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>526</v>
       </c>
@@ -9344,7 +9472,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>526</v>
       </c>
@@ -9376,7 +9504,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>295</v>
       </c>
@@ -9405,7 +9533,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>295</v>
       </c>
@@ -9437,7 +9565,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>295</v>
       </c>
@@ -9466,7 +9594,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>295</v>
       </c>
@@ -9495,7 +9623,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>295</v>
       </c>
@@ -9524,7 +9652,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>295</v>
       </c>
@@ -9553,7 +9681,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>295</v>
       </c>
@@ -9582,7 +9710,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>295</v>
       </c>
@@ -9614,7 +9742,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>295</v>
       </c>
@@ -9643,7 +9771,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>295</v>
       </c>
@@ -9675,7 +9803,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>295</v>
       </c>
@@ -9704,7 +9832,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>295</v>
       </c>
@@ -9733,7 +9861,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>527</v>
       </c>
@@ -9762,7 +9890,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>527</v>
       </c>
@@ -9791,7 +9919,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>527</v>
       </c>
@@ -9820,7 +9948,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>527</v>
       </c>
@@ -9849,7 +9977,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>527</v>
       </c>
@@ -9878,7 +10006,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>527</v>
       </c>
@@ -9907,7 +10035,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>527</v>
       </c>
@@ -9936,7 +10064,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>527</v>
       </c>
@@ -9965,7 +10093,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>527</v>
       </c>
@@ -9994,7 +10122,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>527</v>
       </c>
@@ -10023,7 +10151,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>527</v>
       </c>
@@ -10052,7 +10180,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>527</v>
       </c>
@@ -10081,7 +10209,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>292</v>
       </c>
@@ -10110,7 +10238,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>292</v>
       </c>
@@ -10139,7 +10267,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>292</v>
       </c>
@@ -10168,7 +10296,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>292</v>
       </c>
@@ -10197,7 +10325,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>292</v>
       </c>
@@ -10226,7 +10354,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>292</v>
       </c>
@@ -10255,7 +10383,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>292</v>
       </c>
@@ -10284,7 +10412,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>292</v>
       </c>
@@ -10313,7 +10441,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>292</v>
       </c>
@@ -10342,7 +10470,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>292</v>
       </c>
@@ -10371,7 +10499,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>292</v>
       </c>
@@ -10400,7 +10528,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>292</v>
       </c>
@@ -10429,7 +10557,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>292</v>
       </c>
@@ -10458,7 +10586,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>292</v>
       </c>
@@ -10487,7 +10615,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>292</v>
       </c>
@@ -10516,7 +10644,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>292</v>
       </c>
@@ -10545,7 +10673,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>292</v>
       </c>
@@ -10574,7 +10702,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>292</v>
       </c>
@@ -10603,7 +10731,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>292</v>
       </c>
@@ -10632,7 +10760,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>292</v>
       </c>
@@ -10661,7 +10789,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>292</v>
       </c>
@@ -10690,7 +10818,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>292</v>
       </c>
@@ -10719,7 +10847,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>292</v>
       </c>
@@ -10748,7 +10876,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>292</v>
       </c>
@@ -10777,7 +10905,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>292</v>
       </c>
@@ -10806,7 +10934,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>295</v>
       </c>
@@ -10835,7 +10963,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>295</v>
       </c>
@@ -10864,7 +10992,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>295</v>
       </c>
@@ -10893,7 +11021,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>295</v>
       </c>
@@ -10922,7 +11050,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>295</v>
       </c>
@@ -10951,7 +11079,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>295</v>
       </c>
@@ -10980,7 +11108,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>295</v>
       </c>
@@ -11012,7 +11140,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="115" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>295</v>
       </c>
@@ -11044,7 +11172,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>295</v>
       </c>
@@ -11076,7 +11204,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>295</v>
       </c>
@@ -11108,7 +11236,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>295</v>
       </c>
@@ -11140,7 +11268,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>295</v>
       </c>
@@ -11172,7 +11300,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="120" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>295</v>
       </c>
@@ -11204,7 +11332,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>295</v>
       </c>
@@ -11236,7 +11364,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>295</v>
       </c>
@@ -11265,7 +11393,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>295</v>
       </c>
@@ -11294,7 +11422,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>295</v>
       </c>
@@ -11323,7 +11451,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="125" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>295</v>
       </c>
@@ -11352,7 +11480,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="126" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>295</v>
       </c>
@@ -11381,7 +11509,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>295</v>
       </c>
@@ -11410,7 +11538,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>295</v>
       </c>
@@ -11439,7 +11567,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>295</v>
       </c>
@@ -11471,7 +11599,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="130" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>295</v>
       </c>
@@ -11503,7 +11631,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="131" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>295</v>
       </c>
@@ -11535,7 +11663,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="132" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>295</v>
       </c>
@@ -11564,7 +11692,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="133" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>295</v>
       </c>
@@ -11593,7 +11721,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>295</v>
       </c>
@@ -11622,7 +11750,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="135" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>295</v>
       </c>
@@ -11651,7 +11779,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="136" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>295</v>
       </c>
@@ -11680,7 +11808,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="137" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>295</v>
       </c>
@@ -11709,7 +11837,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="138" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>295</v>
       </c>
@@ -11738,7 +11866,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="139" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>295</v>
       </c>
@@ -11767,7 +11895,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="140" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>295</v>
       </c>
@@ -11796,7 +11924,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="141" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>295</v>
       </c>
@@ -11825,7 +11953,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="142" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>295</v>
       </c>
@@ -11854,7 +11982,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="143" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>295</v>
       </c>
@@ -11883,7 +12011,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="144" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>295</v>
       </c>
@@ -11912,7 +12040,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="145" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>295</v>
       </c>
@@ -11941,7 +12069,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="146" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>295</v>
       </c>
@@ -11970,7 +12098,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="147" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>295</v>
       </c>
@@ -11999,7 +12127,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="148" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>295</v>
       </c>
@@ -12028,7 +12156,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="149" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>295</v>
       </c>
@@ -12057,7 +12185,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="150" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>295</v>
       </c>
@@ -12086,7 +12214,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="151" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>295</v>
       </c>
@@ -12118,7 +12246,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>295</v>
       </c>
@@ -12147,7 +12275,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="153" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>295</v>
       </c>
@@ -12179,7 +12307,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="154" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>295</v>
       </c>
@@ -12208,7 +12336,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="155" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>295</v>
       </c>
@@ -12237,7 +12365,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="156" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>294</v>
       </c>
@@ -12269,7 +12397,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="157" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>294</v>
       </c>
@@ -12301,7 +12429,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="158" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>294</v>
       </c>
@@ -12333,7 +12461,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="159" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>294</v>
       </c>
@@ -12365,7 +12493,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="160" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>294</v>
       </c>
@@ -12397,7 +12525,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="161" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>294</v>
       </c>
@@ -12429,7 +12557,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="162" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>294</v>
       </c>
@@ -12461,7 +12589,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="163" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>294</v>
       </c>
@@ -12493,7 +12621,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="164" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>294</v>
       </c>
@@ -12525,7 +12653,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="165" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>294</v>
       </c>
@@ -12557,7 +12685,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="166" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>294</v>
       </c>
@@ -12589,7 +12717,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="167" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>294</v>
       </c>
@@ -12621,7 +12749,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="168" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>294</v>
       </c>
@@ -12653,7 +12781,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="169" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>294</v>
       </c>
@@ -12685,7 +12813,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="170" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>294</v>
       </c>
@@ -12717,7 +12845,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="171" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>294</v>
       </c>
@@ -12749,7 +12877,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="172" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>294</v>
       </c>
@@ -12781,7 +12909,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="173" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>294</v>
       </c>
@@ -12813,7 +12941,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="174" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>272</v>
       </c>
@@ -12849,7 +12977,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="175" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>272</v>
       </c>
@@ -12885,7 +13013,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="176" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>272</v>
       </c>
@@ -12921,7 +13049,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="177" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>272</v>
       </c>
@@ -12957,7 +13085,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="178" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>272</v>
       </c>
@@ -12993,7 +13121,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="179" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>272</v>
       </c>
@@ -13029,7 +13157,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="180" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>272</v>
       </c>
@@ -13065,7 +13193,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="181" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>272</v>
       </c>
@@ -13101,7 +13229,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="182" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>272</v>
       </c>
@@ -13137,7 +13265,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="183" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>272</v>
       </c>
@@ -13173,7 +13301,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="184" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>272</v>
       </c>
@@ -13209,7 +13337,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="185" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>272</v>
       </c>
@@ -13245,7 +13373,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="186" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>272</v>
       </c>
@@ -13281,7 +13409,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="187" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>272</v>
       </c>
@@ -13317,7 +13445,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="188" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>272</v>
       </c>
@@ -13353,7 +13481,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="189" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>272</v>
       </c>
@@ -13389,7 +13517,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="190" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>272</v>
       </c>
@@ -13425,7 +13553,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="191" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>300</v>
       </c>
@@ -13490,7 +13618,7 @@
         <v>11.86</v>
       </c>
     </row>
-    <row r="192" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>300</v>
       </c>
@@ -13558,7 +13686,7 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="193" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>300</v>
       </c>
@@ -13623,7 +13751,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="194" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>300</v>
       </c>
@@ -13688,7 +13816,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="195" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>300</v>
       </c>
@@ -13753,7 +13881,7 @@
         <v>1.63</v>
       </c>
     </row>
-    <row r="196" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>300</v>
       </c>
@@ -13818,7 +13946,7 @@
         <v>2.21</v>
       </c>
     </row>
-    <row r="197" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>300</v>
       </c>
@@ -13877,7 +14005,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="198" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>300</v>
       </c>
@@ -13954,7 +14082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>300</v>
       </c>
@@ -14019,7 +14147,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="200" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>300</v>
       </c>
@@ -14084,7 +14212,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="201" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>300</v>
       </c>
@@ -14149,7 +14277,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="202" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>300</v>
       </c>
@@ -14214,7 +14342,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="203" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>300</v>
       </c>
@@ -14279,7 +14407,7 @@
         <v>11.86</v>
       </c>
     </row>
-    <row r="204" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>300</v>
       </c>
@@ -14347,7 +14475,7 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="205" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>300</v>
       </c>
@@ -14415,7 +14543,7 @@
         <v>5.53</v>
       </c>
     </row>
-    <row r="206" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>300</v>
       </c>
@@ -14480,7 +14608,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="207" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>300</v>
       </c>
@@ -14545,7 +14673,7 @@
         <v>1.63</v>
       </c>
     </row>
-    <row r="208" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>300</v>
       </c>
@@ -14613,7 +14741,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="209" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>300</v>
       </c>
@@ -14678,7 +14806,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="210" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>300</v>
       </c>
@@ -14755,7 +14883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>300</v>
       </c>
@@ -14820,7 +14948,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="212" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>300</v>
       </c>
@@ -14885,7 +15013,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="213" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>300</v>
       </c>
@@ -14950,7 +15078,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="214" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>300</v>
       </c>
@@ -15015,7 +15143,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="215" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>300</v>
       </c>
@@ -15080,7 +15208,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="216" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>300</v>
       </c>
@@ -15148,7 +15276,7 @@
         <v>2.85</v>
       </c>
     </row>
-    <row r="217" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>300</v>
       </c>
@@ -15213,7 +15341,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="218" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>300</v>
       </c>
@@ -15280,7 +15408,7 @@
         <v>2.5299999999999998</v>
       </c>
     </row>
-    <row r="219" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>300</v>
       </c>
@@ -15348,7 +15476,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="220" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>300</v>
       </c>
@@ -15413,7 +15541,7 @@
         <v>3.06</v>
       </c>
     </row>
-    <row r="221" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>300</v>
       </c>
@@ -15478,7 +15606,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="222" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>300</v>
       </c>
@@ -15555,7 +15683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>300</v>
       </c>
@@ -15620,7 +15748,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="224" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>300</v>
       </c>
@@ -15685,7 +15813,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="225" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>300</v>
       </c>
@@ -15750,7 +15878,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="226" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>300</v>
       </c>
@@ -15815,7 +15943,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="227" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>300</v>
       </c>
@@ -15880,7 +16008,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="228" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>300</v>
       </c>
@@ -15948,7 +16076,7 @@
         <v>2.85</v>
       </c>
     </row>
-    <row r="229" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>300</v>
       </c>
@@ -16016,7 +16144,7 @@
         <v>3.79</v>
       </c>
     </row>
-    <row r="230" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>300</v>
       </c>
@@ -16083,7 +16211,7 @@
         <v>2.5299999999999998</v>
       </c>
     </row>
-    <row r="231" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>300</v>
       </c>
@@ -16151,7 +16279,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="232" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>300</v>
       </c>
@@ -16216,7 +16344,7 @@
         <v>2.27</v>
       </c>
     </row>
-    <row r="233" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>300</v>
       </c>
@@ -16281,7 +16409,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="234" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>300</v>
       </c>
@@ -16358,7 +16486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>300</v>
       </c>
@@ -16423,7 +16551,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="236" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>300</v>
       </c>
@@ -16488,7 +16616,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="237" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>300</v>
       </c>
@@ -16553,7 +16681,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="238" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>300</v>
       </c>
@@ -16618,7 +16746,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="239" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>300</v>
       </c>
@@ -16683,7 +16811,7 @@
         <v>9.66</v>
       </c>
     </row>
-    <row r="240" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>300</v>
       </c>
@@ -16748,7 +16876,7 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="241" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>300</v>
       </c>
@@ -16813,7 +16941,7 @@
         <v>1.93</v>
       </c>
     </row>
-    <row r="242" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>300</v>
       </c>
@@ -16878,7 +17006,7 @@
         <v>2.0099999999999998</v>
       </c>
     </row>
-    <row r="243" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>300</v>
       </c>
@@ -16943,7 +17071,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="244" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>300</v>
       </c>
@@ -17008,7 +17136,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="245" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>300</v>
       </c>
@@ -17073,7 +17201,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="246" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>300</v>
       </c>
@@ -17150,7 +17278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>300</v>
       </c>
@@ -17215,7 +17343,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="248" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>300</v>
       </c>
@@ -17280,7 +17408,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="249" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>300</v>
       </c>
@@ -17345,7 +17473,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="250" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>300</v>
       </c>
@@ -17410,7 +17538,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="251" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>300</v>
       </c>
@@ -17475,7 +17603,7 @@
         <v>9.66</v>
       </c>
     </row>
-    <row r="252" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>300</v>
       </c>
@@ -17540,7 +17668,7 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="253" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>300</v>
       </c>
@@ -17605,7 +17733,7 @@
         <v>4.07</v>
       </c>
     </row>
-    <row r="254" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>300</v>
       </c>
@@ -17670,7 +17798,7 @@
         <v>2.0099999999999998</v>
       </c>
     </row>
-    <row r="255" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>300</v>
       </c>
@@ -17735,7 +17863,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="256" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>300</v>
       </c>
@@ -17800,7 +17928,7 @@
         <v>1.83</v>
       </c>
     </row>
-    <row r="257" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>300</v>
       </c>
@@ -17865,7 +17993,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="258" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>300</v>
       </c>
@@ -17942,7 +18070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>300</v>
       </c>
@@ -18007,7 +18135,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="260" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>300</v>
       </c>
@@ -18072,7 +18200,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="261" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>300</v>
       </c>
@@ -18137,7 +18265,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="262" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>300</v>
       </c>
@@ -18202,7 +18330,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="263" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>300</v>
       </c>
@@ -18279,7 +18407,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="264" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>300</v>
       </c>
@@ -18356,7 +18484,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="265" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>300</v>
       </c>
@@ -18433,7 +18561,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="266" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>300</v>
       </c>
@@ -18510,7 +18638,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="267" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>300</v>
       </c>
@@ -18587,7 +18715,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="268" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>300</v>
       </c>
@@ -18664,7 +18792,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="269" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>300</v>
       </c>
@@ -18741,7 +18869,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="270" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>300</v>
       </c>
@@ -18818,7 +18946,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="271" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>300</v>
       </c>
@@ -18895,7 +19023,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="272" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>300</v>
       </c>
@@ -18972,7 +19100,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="273" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>300</v>
       </c>
@@ -19049,7 +19177,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="274" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>300</v>
       </c>
@@ -19126,7 +19254,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="275" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>389</v>
       </c>
@@ -19155,7 +19283,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="276" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>389</v>
       </c>
@@ -19184,7 +19312,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="277" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>389</v>
       </c>
@@ -19213,7 +19341,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="278" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>389</v>
       </c>
@@ -19242,7 +19370,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="279" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>389</v>
       </c>
@@ -19271,7 +19399,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="280" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>389</v>
       </c>
@@ -19300,7 +19428,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="281" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>389</v>
       </c>
@@ -19329,7 +19457,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="282" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>389</v>
       </c>
@@ -19358,7 +19486,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="283" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>389</v>
       </c>
@@ -19387,7 +19515,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="284" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>389</v>
       </c>
@@ -19416,7 +19544,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="285" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>389</v>
       </c>
@@ -19445,7 +19573,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="286" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>389</v>
       </c>
@@ -19474,7 +19602,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="287" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>394</v>
       </c>
@@ -19503,7 +19631,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="288" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>394</v>
       </c>
@@ -19532,7 +19660,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="289" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>394</v>
       </c>
@@ -19561,7 +19689,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="290" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>394</v>
       </c>
@@ -19590,7 +19718,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="291" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>394</v>
       </c>
@@ -19619,7 +19747,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="292" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>394</v>
       </c>
@@ -19648,7 +19776,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="293" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>394</v>
       </c>
@@ -19677,7 +19805,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="294" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>394</v>
       </c>
@@ -19706,7 +19834,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="295" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>394</v>
       </c>
@@ -19735,7 +19863,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="296" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>394</v>
       </c>
@@ -19764,7 +19892,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="297" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>394</v>
       </c>
@@ -19799,7 +19927,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="298" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>394</v>
       </c>
@@ -19834,7 +19962,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="299" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>394</v>
       </c>
@@ -19869,7 +19997,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="300" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>394</v>
       </c>
@@ -19904,7 +20032,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="301" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>394</v>
       </c>
@@ -19939,7 +20067,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="302" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>394</v>
       </c>
@@ -19973,7 +20101,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="303" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>394</v>
       </c>
@@ -20008,7 +20136,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="304" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>394</v>
       </c>
@@ -20042,7 +20170,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="305" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>394</v>
       </c>
@@ -20076,7 +20204,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="306" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>394</v>
       </c>
@@ -20111,7 +20239,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="307" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>394</v>
       </c>
@@ -20140,7 +20268,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="308" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>394</v>
       </c>
@@ -20169,7 +20297,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="309" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>394</v>
       </c>
@@ -20198,7 +20326,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="310" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>394</v>
       </c>
@@ -20227,7 +20355,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="311" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>394</v>
       </c>
@@ -20256,7 +20384,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="312" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>394</v>
       </c>
@@ -20285,7 +20413,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="313" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>394</v>
       </c>
@@ -20314,7 +20442,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="314" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>394</v>
       </c>
@@ -20343,7 +20471,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="315" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>394</v>
       </c>
@@ -20372,7 +20500,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="316" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>394</v>
       </c>
@@ -20401,7 +20529,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="317" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>394</v>
       </c>
@@ -20430,7 +20558,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="318" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>394</v>
       </c>
@@ -20459,7 +20587,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="319" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>394</v>
       </c>
@@ -20488,7 +20616,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="320" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>394</v>
       </c>
@@ -20517,7 +20645,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="321" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>394</v>
       </c>
@@ -20546,7 +20674,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="322" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>394</v>
       </c>
@@ -20575,7 +20703,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="323" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>394</v>
       </c>
@@ -20604,7 +20732,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="324" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>394</v>
       </c>
@@ -20633,7 +20761,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="325" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>394</v>
       </c>
@@ -20662,7 +20790,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="326" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>394</v>
       </c>
@@ -20691,7 +20819,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="327" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>394</v>
       </c>
@@ -20720,7 +20848,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="328" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>394</v>
       </c>
@@ -20749,7 +20877,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="329" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>394</v>
       </c>
@@ -20778,7 +20906,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="330" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>394</v>
       </c>
@@ -20807,7 +20935,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="331" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>394</v>
       </c>
@@ -20836,7 +20964,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="332" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" t="str">
         <f>A324</f>
         <v>WV_GLIMPSS</v>
@@ -20872,7 +21000,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="333" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" t="str">
         <f t="shared" ref="A333:H333" si="18">A325</f>
         <v>WV_GLIMPSS</v>
@@ -20908,7 +21036,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="334" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" t="str">
         <f t="shared" ref="A334:H334" si="19">A326</f>
         <v>WV_GLIMPSS</v>
@@ -20944,7 +21072,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="335" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" t="str">
         <f t="shared" ref="A335:H335" si="20">A327</f>
         <v>WV_GLIMPSS</v>
@@ -20979,7 +21107,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="336" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" t="str">
         <f t="shared" ref="A336:H336" si="21">A328</f>
         <v>WV_GLIMPSS</v>
@@ -21014,7 +21142,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="337" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" t="str">
         <f t="shared" ref="A337:H337" si="22">A329</f>
         <v>WV_GLIMPSS</v>
@@ -21050,7 +21178,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="338" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" t="str">
         <f t="shared" ref="A338:H338" si="23">A330</f>
         <v>WV_GLIMPSS</v>
@@ -21085,7 +21213,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="339" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" t="str">
         <f t="shared" ref="A339:H339" si="24">A331</f>
         <v>WV_GLIMPSS</v>
@@ -21120,7 +21248,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="340" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>394</v>
       </c>
@@ -21150,7 +21278,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="341" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>394</v>
       </c>
@@ -21180,7 +21308,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="342" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>394</v>
       </c>
@@ -21210,7 +21338,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="343" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>394</v>
       </c>
@@ -21240,7 +21368,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="344" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>394</v>
       </c>
@@ -21270,7 +21398,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="345" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>394</v>
       </c>
@@ -21300,7 +21428,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="346" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>394</v>
       </c>
@@ -21330,7 +21458,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="347" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>394</v>
       </c>
@@ -21360,7 +21488,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="348" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>394</v>
       </c>
@@ -22579,7 +22707,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="390" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>479</v>
       </c>
@@ -22644,7 +22772,7 @@
         <v>6.69</v>
       </c>
     </row>
-    <row r="391" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>479</v>
       </c>
@@ -22709,7 +22837,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="392" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>479</v>
       </c>
@@ -22774,7 +22902,7 @@
         <v>1.94</v>
       </c>
     </row>
-    <row r="393" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>479</v>
       </c>
@@ -22839,7 +22967,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="394" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>479</v>
       </c>
@@ -22904,7 +23032,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="395" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>479</v>
       </c>
@@ -22969,7 +23097,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="396" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>479</v>
       </c>
@@ -23028,7 +23156,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="397" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>479</v>
       </c>
@@ -23105,7 +23233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>479</v>
       </c>
@@ -23170,7 +23298,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="399" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>479</v>
       </c>
@@ -23235,7 +23363,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="400" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>479</v>
       </c>
@@ -23300,7 +23428,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="401" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>479</v>
       </c>
@@ -23365,7 +23493,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="402" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>479</v>
       </c>
@@ -23430,7 +23558,7 @@
         <v>6.69</v>
       </c>
     </row>
-    <row r="403" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>479</v>
       </c>
@@ -23495,7 +23623,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="404" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>479</v>
       </c>
@@ -23560,7 +23688,7 @@
         <v>1.91</v>
       </c>
     </row>
-    <row r="405" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>479</v>
       </c>
@@ -23625,7 +23753,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="406" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>479</v>
       </c>
@@ -23690,7 +23818,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="407" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>479</v>
       </c>
@@ -23755,7 +23883,7 @@
         <v>-0.19</v>
       </c>
     </row>
-    <row r="408" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>479</v>
       </c>
@@ -23820,7 +23948,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="409" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>479</v>
       </c>
@@ -23897,7 +24025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>479</v>
       </c>
@@ -23962,7 +24090,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="411" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>479</v>
       </c>
@@ -24027,7 +24155,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="412" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>479</v>
       </c>
@@ -24092,7 +24220,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="413" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>479</v>
       </c>
@@ -24157,7 +24285,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="414" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>479</v>
       </c>
@@ -24222,7 +24350,7 @@
         <v>8.49</v>
       </c>
     </row>
-    <row r="415" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>479</v>
       </c>
@@ -24287,7 +24415,7 @@
         <v>1.91</v>
       </c>
     </row>
-    <row r="416" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>479</v>
       </c>
@@ -24352,7 +24480,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="417" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>479</v>
       </c>
@@ -24417,7 +24545,7 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="418" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>479</v>
       </c>
@@ -24482,7 +24610,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="419" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>479</v>
       </c>
@@ -24547,7 +24675,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="420" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>479</v>
       </c>
@@ -24612,7 +24740,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="421" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>479</v>
       </c>
@@ -24689,7 +24817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>479</v>
       </c>
@@ -24754,7 +24882,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="423" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>479</v>
       </c>
@@ -24819,7 +24947,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="424" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>479</v>
       </c>
@@ -24884,7 +25012,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="425" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>479</v>
       </c>
@@ -24949,7 +25077,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="426" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>479</v>
       </c>
@@ -25014,7 +25142,7 @@
         <v>8.49</v>
       </c>
     </row>
-    <row r="427" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>479</v>
       </c>
@@ -25079,7 +25207,7 @@
         <v>1.91</v>
       </c>
     </row>
-    <row r="428" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>479</v>
       </c>
@@ -25144,7 +25272,7 @@
         <v>1.47</v>
       </c>
     </row>
-    <row r="429" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>479</v>
       </c>
@@ -25209,7 +25337,7 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="430" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>479</v>
       </c>
@@ -25274,7 +25402,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="431" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>479</v>
       </c>
@@ -25339,7 +25467,7 @@
         <v>-0.37</v>
       </c>
     </row>
-    <row r="432" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>479</v>
       </c>
@@ -25404,7 +25532,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="433" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>479</v>
       </c>
@@ -25481,7 +25609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>479</v>
       </c>
@@ -25546,7 +25674,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="435" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>479</v>
       </c>
@@ -25611,7 +25739,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="436" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>479</v>
       </c>
@@ -25676,7 +25804,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="437" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>479</v>
       </c>
@@ -25741,7 +25869,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="438" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>479</v>
       </c>
@@ -25806,7 +25934,7 @@
         <v>5.14</v>
       </c>
     </row>
-    <row r="439" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>479</v>
       </c>
@@ -25871,7 +25999,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="440" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>479</v>
       </c>
@@ -25936,7 +26064,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="441" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>479</v>
       </c>
@@ -26001,7 +26129,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="442" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>479</v>
       </c>
@@ -26066,7 +26194,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="443" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>479</v>
       </c>
@@ -26131,7 +26259,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="444" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>479</v>
       </c>
@@ -26196,7 +26324,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="445" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>479</v>
       </c>
@@ -26273,7 +26401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>479</v>
       </c>
@@ -26338,7 +26466,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="447" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>479</v>
       </c>
@@ -26403,7 +26531,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="448" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>479</v>
       </c>
@@ -26468,7 +26596,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="449" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>479</v>
       </c>
@@ -26533,7 +26661,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="450" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>479</v>
       </c>
@@ -26598,7 +26726,7 @@
         <v>5.14</v>
       </c>
     </row>
-    <row r="451" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>479</v>
       </c>
@@ -26663,7 +26791,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="452" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>479</v>
       </c>
@@ -26728,7 +26856,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="453" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>479</v>
       </c>
@@ -26793,7 +26921,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="454" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>479</v>
       </c>
@@ -26858,7 +26986,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="455" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>479</v>
       </c>
@@ -26923,7 +27051,7 @@
         <v>-0.51</v>
       </c>
     </row>
-    <row r="456" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>479</v>
       </c>
@@ -26988,7 +27116,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="457" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>479</v>
       </c>
@@ -27065,7 +27193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="458" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>479</v>
       </c>
@@ -27130,7 +27258,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="459" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>479</v>
       </c>
@@ -27195,7 +27323,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="460" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>479</v>
       </c>
@@ -27260,7 +27388,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="461" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>479</v>
       </c>
@@ -27325,7 +27453,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="462" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>479</v>
       </c>
@@ -27402,7 +27530,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="463" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>479</v>
       </c>
@@ -27479,7 +27607,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="464" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>479</v>
       </c>
@@ -27556,7 +27684,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="465" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>479</v>
       </c>
@@ -27633,7 +27761,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="466" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>479</v>
       </c>
@@ -27710,7 +27838,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="467" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>479</v>
       </c>
@@ -27787,7 +27915,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="468" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>479</v>
       </c>
@@ -27864,7 +27992,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="469" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>479</v>
       </c>
@@ -27941,7 +28069,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="470" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>479</v>
       </c>
@@ -28018,7 +28146,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="471" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>479</v>
       </c>
@@ -28095,7 +28223,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="472" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>479</v>
       </c>
@@ -28172,7 +28300,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="473" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>479</v>
       </c>
@@ -28249,7 +28377,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="474" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>506</v>
       </c>
@@ -28284,7 +28412,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="475" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>506</v>
       </c>
@@ -28319,7 +28447,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="476" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>506</v>
       </c>
@@ -28354,7 +28482,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="477" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>506</v>
       </c>
@@ -28389,7 +28517,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="478" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>506</v>
       </c>
@@ -28424,7 +28552,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="479" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>506</v>
       </c>
@@ -28459,7 +28587,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="480" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>506</v>
       </c>
@@ -28494,7 +28622,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="481" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>506</v>
       </c>
@@ -28529,7 +28657,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="482" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>506</v>
       </c>
@@ -28564,7 +28692,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="483" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>506</v>
       </c>
@@ -28599,7 +28727,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="484" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>506</v>
       </c>
@@ -28634,7 +28762,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="485" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>506</v>
       </c>
@@ -28669,7 +28797,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="486" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>506</v>
       </c>
@@ -28704,7 +28832,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="487" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>506</v>
       </c>
@@ -28739,7 +28867,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="488" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>506</v>
       </c>
@@ -28774,7 +28902,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="489" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>506</v>
       </c>
@@ -28809,7 +28937,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="490" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>506</v>
       </c>
@@ -28844,7 +28972,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="491" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>506</v>
       </c>
@@ -28879,7 +29007,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="492" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>506</v>
       </c>
@@ -28914,7 +29042,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="493" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>506</v>
       </c>
@@ -28949,7 +29077,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="494" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>506</v>
       </c>
@@ -28984,7 +29112,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="495" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>506</v>
       </c>
@@ -29019,7 +29147,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="496" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>506</v>
       </c>
@@ -29054,7 +29182,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="497" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>506</v>
       </c>
@@ -29089,7 +29217,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="498" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>506</v>
       </c>
@@ -29124,7 +29252,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="499" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>506</v>
       </c>
@@ -29159,7 +29287,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="500" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>506</v>
       </c>
@@ -29194,7 +29322,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="501" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>506</v>
       </c>
@@ -29229,7 +29357,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="502" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>506</v>
       </c>
@@ -29264,7 +29392,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="503" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>506</v>
       </c>
@@ -29299,7 +29427,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="504" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>503</v>
       </c>
@@ -29334,7 +29462,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="505" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>503</v>
       </c>
@@ -29369,7 +29497,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="506" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>503</v>
       </c>
@@ -29404,7 +29532,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="507" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>503</v>
       </c>
@@ -29439,7 +29567,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="508" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>503</v>
       </c>
@@ -29474,7 +29602,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="509" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>503</v>
       </c>
@@ -29509,7 +29637,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="510" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>542</v>
       </c>
@@ -29541,7 +29669,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="511" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>542</v>
       </c>
@@ -29573,7 +29701,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="512" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>542</v>
       </c>
@@ -29605,7 +29733,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="513" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>542</v>
       </c>
@@ -29637,7 +29765,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="514" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>542</v>
       </c>
@@ -29669,7 +29797,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="515" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>542</v>
       </c>
@@ -29701,7 +29829,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="516" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>542</v>
       </c>
@@ -29733,7 +29861,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="517" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>542</v>
       </c>
@@ -29765,7 +29893,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="518" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>542</v>
       </c>
@@ -29797,7 +29925,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="519" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>542</v>
       </c>
@@ -29829,7 +29957,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="520" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>542</v>
       </c>
@@ -29861,7 +29989,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="521" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>542</v>
       </c>
@@ -29893,7 +30021,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="522" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>542</v>
       </c>
@@ -29925,7 +30053,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="523" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>542</v>
       </c>
@@ -29957,7 +30085,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="524" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>542</v>
       </c>
@@ -29989,7 +30117,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="525" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>542</v>
       </c>
@@ -30032,7 +30160,7 @@
       <c r="M525" s="26"/>
       <c r="N525" s="26"/>
     </row>
-    <row r="526" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>542</v>
       </c>
@@ -30075,7 +30203,7 @@
       <c r="M526" s="26"/>
       <c r="N526" s="26"/>
     </row>
-    <row r="527" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>542</v>
       </c>
@@ -30118,7 +30246,7 @@
       <c r="M527" s="26"/>
       <c r="N527" s="26"/>
     </row>
-    <row r="528" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>542</v>
       </c>
@@ -30161,7 +30289,7 @@
       <c r="M528" s="26"/>
       <c r="N528" s="26"/>
     </row>
-    <row r="529" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>542</v>
       </c>
@@ -30204,7 +30332,7 @@
       <c r="M529" s="26"/>
       <c r="N529" s="26"/>
     </row>
-    <row r="530" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>542</v>
       </c>
@@ -30247,7 +30375,7 @@
       <c r="M530" s="26"/>
       <c r="N530" s="26"/>
     </row>
-    <row r="531" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>542</v>
       </c>
@@ -30290,7 +30418,7 @@
       <c r="M531" s="26"/>
       <c r="N531" s="26"/>
     </row>
-    <row r="532" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>542</v>
       </c>
@@ -30333,7 +30461,7 @@
       <c r="M532" s="26"/>
       <c r="N532" s="26"/>
     </row>
-    <row r="533" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>542</v>
       </c>
@@ -30376,7 +30504,7 @@
       <c r="M533" s="26"/>
       <c r="N533" s="26"/>
     </row>
-    <row r="534" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>542</v>
       </c>
@@ -30419,7 +30547,7 @@
       <c r="M534" s="26"/>
       <c r="N534" s="26"/>
     </row>
-    <row r="535" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>563</v>
       </c>
@@ -30454,7 +30582,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="536" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>563</v>
       </c>
@@ -30489,7 +30617,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="537" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>563</v>
       </c>
@@ -30524,7 +30652,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="538" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>563</v>
       </c>
@@ -30559,7 +30687,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="539" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>563</v>
       </c>
@@ -30594,7 +30722,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="540" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>563</v>
       </c>
@@ -30629,7 +30757,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="541" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>563</v>
       </c>
@@ -30664,7 +30792,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="542" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>563</v>
       </c>
@@ -30699,7 +30827,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="543" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>563</v>
       </c>
@@ -30734,7 +30862,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="544" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>563</v>
       </c>
@@ -30769,7 +30897,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="545" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>563</v>
       </c>
@@ -30804,7 +30932,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="546" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>563</v>
       </c>
@@ -30839,7 +30967,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="547" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>563</v>
       </c>
@@ -30874,7 +31002,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="548" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>563</v>
       </c>
@@ -30909,7 +31037,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="549" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>563</v>
       </c>
@@ -30944,7 +31072,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="550" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>584</v>
       </c>
@@ -30982,7 +31110,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="551" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>584</v>
       </c>
@@ -31023,7 +31151,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="552" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>584</v>
       </c>
@@ -31064,7 +31192,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="553" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>584</v>
       </c>
@@ -31102,7 +31230,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="554" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>584</v>
       </c>
@@ -31134,7 +31262,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="555" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>584</v>
       </c>
@@ -31166,7 +31294,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="556" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>584</v>
       </c>
@@ -31198,7 +31326,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="557" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>584</v>
       </c>
@@ -31230,7 +31358,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="558" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>584</v>
       </c>
@@ -31265,7 +31393,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="559" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>584</v>
       </c>
@@ -31300,7 +31428,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="560" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>584</v>
       </c>
@@ -31335,7 +31463,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="561" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>602</v>
       </c>
@@ -31370,7 +31498,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="562" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>602</v>
       </c>
@@ -31405,7 +31533,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="563" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>602</v>
       </c>
@@ -31440,7 +31568,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="564" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>602</v>
       </c>
@@ -31475,7 +31603,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="565" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>602</v>
       </c>
@@ -31510,7 +31638,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="566" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>602</v>
       </c>
@@ -31545,7 +31673,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="567" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>602</v>
       </c>
@@ -31580,7 +31708,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="568" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>602</v>
       </c>
@@ -31615,7 +31743,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="569" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>602</v>
       </c>
@@ -31650,7 +31778,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="570" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>602</v>
       </c>
@@ -31685,7 +31813,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="571" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>643</v>
       </c>
@@ -31717,7 +31845,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="572" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>643</v>
       </c>
@@ -31749,7 +31877,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="573" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>643</v>
       </c>
@@ -31781,7 +31909,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="574" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>643</v>
       </c>
@@ -31813,7 +31941,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="575" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>669</v>
       </c>
@@ -31848,7 +31976,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="576" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>669</v>
       </c>
@@ -31883,7 +32011,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="577" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>669</v>
       </c>
@@ -31918,7 +32046,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="578" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>669</v>
       </c>
@@ -31953,7 +32081,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="579" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>669</v>
       </c>
@@ -31988,7 +32116,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="580" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>669</v>
       </c>
@@ -32023,7 +32151,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="581" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>669</v>
       </c>
@@ -32058,7 +32186,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="582" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>669</v>
       </c>
@@ -32093,7 +32221,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="583" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>669</v>
       </c>
@@ -32128,7 +32256,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="584" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>669</v>
       </c>
@@ -32163,7 +32291,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="585" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>669</v>
       </c>
@@ -32198,7 +32326,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="586" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>669</v>
       </c>
@@ -32233,7 +32361,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="587" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>669</v>
       </c>
@@ -32268,7 +32396,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="588" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>669</v>
       </c>
@@ -32303,7 +32431,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="589" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>673</v>
       </c>
@@ -32335,7 +32463,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="590" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>673</v>
       </c>
@@ -32367,7 +32495,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="591" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>673</v>
       </c>
@@ -32402,7 +32530,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="592" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>673</v>
       </c>
@@ -32434,7 +32562,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="593" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>673</v>
       </c>
@@ -32466,7 +32594,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="594" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>673</v>
       </c>
@@ -32501,7 +32629,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="595" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>673</v>
       </c>
@@ -32545,7 +32673,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="596" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>673</v>
       </c>
@@ -32580,7 +32708,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="597" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>673</v>
       </c>
@@ -32612,7 +32740,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="598" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>673</v>
       </c>
@@ -32644,7 +32772,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="599" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>673</v>
       </c>
@@ -32679,7 +32807,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="600" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>673</v>
       </c>
@@ -32711,7 +32839,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="601" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>673</v>
       </c>
@@ -32743,7 +32871,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="602" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>673</v>
       </c>
@@ -32778,7 +32906,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="603" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
         <v>673</v>
       </c>
@@ -32822,7 +32950,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="604" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
         <v>673</v>
       </c>
@@ -32857,7 +32985,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="605" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
         <v>673</v>
       </c>
@@ -32889,7 +33017,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="606" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>673</v>
       </c>
@@ -32921,7 +33049,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="607" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
         <v>673</v>
       </c>
@@ -32953,7 +33081,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="608" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>673</v>
       </c>
@@ -32985,7 +33113,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="609" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>673</v>
       </c>
@@ -33026,7 +33154,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="610" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>673</v>
       </c>
@@ -33067,7 +33195,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="611" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
         <v>673</v>
       </c>
@@ -33108,7 +33236,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="612" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
         <v>673</v>
       </c>
@@ -33140,7 +33268,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="613" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>673</v>
       </c>
@@ -33175,7 +33303,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="614" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
         <v>673</v>
       </c>
@@ -33207,7 +33335,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="615" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
         <v>673</v>
       </c>
@@ -33239,7 +33367,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="616" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
         <v>673</v>
       </c>
@@ -33271,7 +33399,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="617" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
         <v>673</v>
       </c>
@@ -33303,7 +33431,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="618" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
         <v>673</v>
       </c>
@@ -33335,7 +33463,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="619" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
         <v>673</v>
       </c>
@@ -33376,7 +33504,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="620" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
         <v>673</v>
       </c>
@@ -33417,7 +33545,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="621" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
         <v>673</v>
       </c>
@@ -33458,7 +33586,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="622" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
         <v>673</v>
       </c>
@@ -33490,7 +33618,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="623" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
         <v>673</v>
       </c>
@@ -33525,7 +33653,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="624" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
         <v>673</v>
       </c>
@@ -33557,7 +33685,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="625" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
         <v>673</v>
       </c>
@@ -33589,7 +33717,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="626" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
         <v>673</v>
       </c>
@@ -33621,7 +33749,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="627" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
         <v>673</v>
       </c>
@@ -33653,7 +33781,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="628" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
         <v>673</v>
       </c>
@@ -33685,7 +33813,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="629" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
         <v>673</v>
       </c>
@@ -33729,7 +33857,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="630" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
         <v>673</v>
       </c>
@@ -33764,7 +33892,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="631" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
         <v>673</v>
       </c>
@@ -33796,7 +33924,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="632" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
         <v>673</v>
       </c>
@@ -33828,7 +33956,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="633" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
         <v>673</v>
       </c>
@@ -33860,7 +33988,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="634" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
         <v>673</v>
       </c>
@@ -33901,7 +34029,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="635" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
         <v>673</v>
       </c>
@@ -33933,7 +34061,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="636" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
         <v>673</v>
       </c>
@@ -33965,7 +34093,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="637" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
         <v>673</v>
       </c>
@@ -33997,7 +34125,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="638" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
         <v>673</v>
       </c>
@@ -34029,7 +34157,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="639" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
         <v>673</v>
       </c>
@@ -34073,7 +34201,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="640" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
         <v>673</v>
       </c>
@@ -34108,7 +34236,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="641" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
         <v>673</v>
       </c>
@@ -34140,7 +34268,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="642" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
         <v>673</v>
       </c>
@@ -34172,7 +34300,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="643" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
         <v>673</v>
       </c>
@@ -34204,7 +34332,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="644" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
         <v>673</v>
       </c>
@@ -34245,7 +34373,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="645" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
         <v>673</v>
       </c>
@@ -34277,7 +34405,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="646" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
         <v>673</v>
       </c>
@@ -34309,7 +34437,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="647" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
         <v>673</v>
       </c>
@@ -34341,7 +34469,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="648" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
         <v>673</v>
       </c>
@@ -34373,7 +34501,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="649" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
         <v>673</v>
       </c>
@@ -34417,7 +34545,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="650" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
         <v>673</v>
       </c>
@@ -34452,7 +34580,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="651" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
         <v>673</v>
       </c>
@@ -34484,7 +34612,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="652" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
         <v>673</v>
       </c>
@@ -34516,7 +34644,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="653" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
         <v>673</v>
       </c>
@@ -34548,7 +34676,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="654" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
         <v>673</v>
       </c>
@@ -34589,7 +34717,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="655" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
         <v>673</v>
       </c>
@@ -34621,7 +34749,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="656" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
         <v>673</v>
       </c>
@@ -34653,7 +34781,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="657" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
         <v>673</v>
       </c>
@@ -34688,7 +34816,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="658" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
         <v>673</v>
       </c>
@@ -34720,7 +34848,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="659" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
         <v>673</v>
       </c>
@@ -34752,7 +34880,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="660" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
         <v>673</v>
       </c>
@@ -34784,7 +34912,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="661" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
         <v>673</v>
       </c>
@@ -34819,7 +34947,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="662" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
         <v>673</v>
       </c>
@@ -34851,7 +34979,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="663" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
         <v>673</v>
       </c>
@@ -34886,7 +35014,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="664" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
         <v>673</v>
       </c>
@@ -34930,7 +35058,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="665" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
         <v>673</v>
       </c>
@@ -34971,7 +35099,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="666" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
         <v>673</v>
       </c>
@@ -35003,7 +35131,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="667" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
         <v>673</v>
       </c>
@@ -35047,7 +35175,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="668" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
         <v>673</v>
       </c>
@@ -35082,7 +35210,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="669" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
         <v>673</v>
       </c>
@@ -35114,7 +35242,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="670" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
         <v>673</v>
       </c>
@@ -35158,7 +35286,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="671" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
         <v>701</v>
       </c>
@@ -35190,7 +35318,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="672" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
         <v>701</v>
       </c>
@@ -35222,7 +35350,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="673" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
         <v>701</v>
       </c>
@@ -35254,7 +35382,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="674" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
         <v>701</v>
       </c>
@@ -35286,7 +35414,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="675" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
         <v>701</v>
       </c>
@@ -35318,7 +35446,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="676" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
         <v>701</v>
       </c>
@@ -35350,7 +35478,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="677" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
         <v>726</v>
       </c>
@@ -35397,7 +35525,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="678" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
         <v>726</v>
       </c>
@@ -35444,7 +35572,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="679" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
         <v>726</v>
       </c>
@@ -35485,7 +35613,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="680" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
         <v>726</v>
       </c>
@@ -35526,7 +35654,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="681" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
         <v>726</v>
       </c>
@@ -35570,7 +35698,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="682" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
         <v>726</v>
       </c>
@@ -35611,7 +35739,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="683" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
         <v>726</v>
       </c>
@@ -35652,7 +35780,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="684" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
         <v>726</v>
       </c>
@@ -35693,7 +35821,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="685" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A685" t="s">
         <v>726</v>
       </c>
@@ -35734,7 +35862,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="686" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A686" t="s">
         <v>726</v>
       </c>
@@ -35775,7 +35903,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="687" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
         <v>726</v>
       </c>
@@ -35816,7 +35944,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="688" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
         <v>726</v>
       </c>
@@ -35857,7 +35985,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="689" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
         <v>726</v>
       </c>
@@ -35898,7 +36026,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="690" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A690" t="s">
         <v>726</v>
       </c>
@@ -35939,7 +36067,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="691" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
         <v>726</v>
       </c>
@@ -35980,7 +36108,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="692" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
         <v>726</v>
       </c>
@@ -36021,7 +36149,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="693" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A693" t="s">
         <v>726</v>
       </c>
@@ -36062,7 +36190,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="694" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A694" t="s">
         <v>726</v>
       </c>
@@ -36103,7 +36231,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="695" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A695" t="s">
         <v>726</v>
       </c>
@@ -36144,7 +36272,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="696" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A696" t="s">
         <v>726</v>
       </c>
@@ -36185,7 +36313,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="697" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
         <v>726</v>
       </c>
@@ -36226,7 +36354,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="698" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A698" t="s">
         <v>726</v>
       </c>
@@ -36267,7 +36395,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="699" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A699" t="s">
         <v>726</v>
       </c>
@@ -36308,7 +36436,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="700" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
         <v>726</v>
       </c>
@@ -36349,7 +36477,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="701" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
         <v>726</v>
       </c>
@@ -36384,7 +36512,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="702" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A702" t="s">
         <v>726</v>
       </c>
@@ -36425,7 +36553,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="703" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A703" t="s">
         <v>726</v>
       </c>
@@ -36466,7 +36594,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="704" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
         <v>726</v>
       </c>
@@ -36507,7 +36635,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="705" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A705" t="s">
         <v>726</v>
       </c>
@@ -36548,7 +36676,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="706" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
         <v>726</v>
       </c>
@@ -36589,7 +36717,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="707" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A707" t="s">
         <v>726</v>
       </c>
@@ -36630,7 +36758,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="708" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A708" t="s">
         <v>726</v>
       </c>
@@ -36671,7 +36799,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="709" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A709" t="s">
         <v>726</v>
       </c>
@@ -36712,7 +36840,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="710" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A710" t="s">
         <v>726</v>
       </c>
@@ -36753,7 +36881,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="711" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A711" t="s">
         <v>726</v>
       </c>
@@ -36788,7 +36916,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="712" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A712" t="s">
         <v>726</v>
       </c>
@@ -36829,7 +36957,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="713" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A713" t="s">
         <v>726</v>
       </c>
@@ -36870,7 +36998,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="714" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A714" t="s">
         <v>726</v>
       </c>
@@ -36911,7 +37039,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="715" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A715" t="s">
         <v>726</v>
       </c>
@@ -36952,7 +37080,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="716" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A716" t="s">
         <v>726</v>
       </c>
@@ -36993,7 +37121,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="717" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
         <v>726</v>
       </c>
@@ -37025,7 +37153,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="718" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A718" t="s">
         <v>726</v>
       </c>
@@ -37057,7 +37185,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="719" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
         <v>726</v>
       </c>
@@ -37095,7 +37223,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="720" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A720" t="s">
         <v>726</v>
       </c>
@@ -37130,7 +37258,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="721" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A721" t="s">
         <v>726</v>
       </c>
@@ -37165,7 +37293,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="722" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A722" t="s">
         <v>726</v>
       </c>
@@ -37197,7 +37325,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="723" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A723" t="s">
         <v>726</v>
       </c>
@@ -37229,7 +37357,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="724" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A724" t="s">
         <v>726</v>
       </c>
@@ -37264,7 +37392,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="725" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A725" t="s">
         <v>701</v>
       </c>
@@ -37296,7 +37424,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="726" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A726" t="s">
         <v>701</v>
       </c>
@@ -37328,7 +37456,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="727" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A727" t="s">
         <v>701</v>
       </c>
@@ -37360,7 +37488,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="728" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A728" t="s">
         <v>701</v>
       </c>
@@ -37392,7 +37520,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="729" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A729" t="s">
         <v>701</v>
       </c>
@@ -37424,7 +37552,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="730" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A730" t="s">
         <v>701</v>
       </c>
@@ -37456,7 +37584,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="731" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A731" t="s">
         <v>701</v>
       </c>
@@ -37488,7 +37616,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="732" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A732" t="s">
         <v>701</v>
       </c>
@@ -37520,7 +37648,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="733" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A733" t="s">
         <v>701</v>
       </c>
@@ -37552,7 +37680,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="734" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A734" t="s">
         <v>701</v>
       </c>
@@ -37584,7 +37712,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="735" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A735" t="s">
         <v>701</v>
       </c>
@@ -37616,7 +37744,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="736" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A736" t="s">
         <v>726</v>
       </c>
@@ -37657,7 +37785,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="737" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A737" t="s">
         <v>726</v>
       </c>
@@ -37704,7 +37832,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="738" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A738" t="s">
         <v>726</v>
       </c>
@@ -37745,7 +37873,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="739" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A739" t="s">
         <v>726</v>
       </c>
@@ -37786,7 +37914,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="740" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A740" t="s">
         <v>726</v>
       </c>
@@ -37827,7 +37955,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="741" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A741" t="s">
         <v>726</v>
       </c>
@@ -37868,7 +37996,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="742" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A742" t="s">
         <v>726</v>
       </c>
@@ -37909,7 +38037,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="743" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A743" t="s">
         <v>726</v>
       </c>
@@ -37956,7 +38084,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="744" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A744" t="s">
         <v>726</v>
       </c>
@@ -37997,7 +38125,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="745" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A745" t="s">
         <v>726</v>
       </c>
@@ -38038,7 +38166,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="746" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A746" t="s">
         <v>726</v>
       </c>
@@ -38079,7 +38207,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="747" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A747" t="s">
         <v>726</v>
       </c>
@@ -38120,7 +38248,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="748" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A748" t="s">
         <v>726</v>
       </c>
@@ -38161,7 +38289,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="749" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A749" t="s">
         <v>726</v>
       </c>
@@ -38202,7 +38330,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="750" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A750" t="s">
         <v>726</v>
       </c>
@@ -38243,7 +38371,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="751" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A751" t="s">
         <v>726</v>
       </c>
@@ -38284,7 +38412,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="752" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A752" t="s">
         <v>726</v>
       </c>
@@ -38325,7 +38453,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="753" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A753" t="s">
         <v>726</v>
       </c>
@@ -38366,7 +38494,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="754" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A754" t="s">
         <v>726</v>
       </c>
@@ -38407,7 +38535,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="755" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A755" t="s">
         <v>726</v>
       </c>
@@ -38448,7 +38576,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="756" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A756" t="s">
         <v>726</v>
       </c>
@@ -38489,7 +38617,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="757" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A757" t="s">
         <v>726</v>
       </c>
@@ -38530,7 +38658,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="758" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A758" t="s">
         <v>726</v>
       </c>
@@ -38571,7 +38699,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="759" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A759" t="s">
         <v>726</v>
       </c>
@@ -38612,7 +38740,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="760" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A760" t="s">
         <v>726</v>
       </c>
@@ -38653,7 +38781,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="761" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A761" t="s">
         <v>726</v>
       </c>
@@ -38688,7 +38816,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="762" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A762" t="s">
         <v>726</v>
       </c>
@@ -38726,7 +38854,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="763" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A763" t="s">
         <v>726</v>
       </c>
@@ -38764,7 +38892,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="764" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A764" t="s">
         <v>726</v>
       </c>
@@ -38802,7 +38930,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="765" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A765" t="s">
         <v>726</v>
       </c>
@@ -38834,7 +38962,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="766" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A766" t="s">
         <v>726</v>
       </c>
@@ -38872,7 +39000,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="767" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A767" t="s">
         <v>726</v>
       </c>
@@ -38910,14 +39038,1064 @@
         <v>801</v>
       </c>
     </row>
+    <row r="768" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A768" t="s">
+        <v>998</v>
+      </c>
+      <c r="B768" t="s">
+        <v>421</v>
+      </c>
+      <c r="C768" t="s">
+        <v>135</v>
+      </c>
+      <c r="D768" t="s">
+        <v>28</v>
+      </c>
+      <c r="E768">
+        <v>3.05</v>
+      </c>
+      <c r="F768" t="s">
+        <v>78</v>
+      </c>
+      <c r="G768">
+        <v>6</v>
+      </c>
+      <c r="H768" t="s">
+        <v>80</v>
+      </c>
+      <c r="J768" t="s">
+        <v>1001</v>
+      </c>
+      <c r="K768" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="769" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A769" t="s">
+        <v>998</v>
+      </c>
+      <c r="B769" t="s">
+        <v>421</v>
+      </c>
+      <c r="C769" t="s">
+        <v>999</v>
+      </c>
+      <c r="D769" t="s">
+        <v>14</v>
+      </c>
+      <c r="E769">
+        <v>8.77</v>
+      </c>
+      <c r="F769" t="s">
+        <v>78</v>
+      </c>
+      <c r="G769">
+        <v>25.88</v>
+      </c>
+      <c r="H769" t="s">
+        <v>80</v>
+      </c>
+      <c r="J769" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K769" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="770" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A770" t="s">
+        <v>998</v>
+      </c>
+      <c r="B770" t="s">
+        <v>421</v>
+      </c>
+      <c r="C770" t="s">
+        <v>516</v>
+      </c>
+      <c r="D770" t="s">
+        <v>14</v>
+      </c>
+      <c r="E770">
+        <v>26.72</v>
+      </c>
+      <c r="F770" t="s">
+        <v>78</v>
+      </c>
+      <c r="G770">
+        <v>59.82</v>
+      </c>
+      <c r="H770" t="s">
+        <v>80</v>
+      </c>
+      <c r="J770" t="s">
+        <v>1003</v>
+      </c>
+      <c r="K770" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="771" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A771" t="s">
+        <v>998</v>
+      </c>
+      <c r="B771" t="s">
+        <v>421</v>
+      </c>
+      <c r="C771" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D771" t="s">
+        <v>14</v>
+      </c>
+      <c r="E771">
+        <v>0.47</v>
+      </c>
+      <c r="F771" t="s">
+        <v>78</v>
+      </c>
+      <c r="G771">
+        <v>0.82</v>
+      </c>
+      <c r="H771" t="s">
+        <v>80</v>
+      </c>
+      <c r="J771" t="s">
+        <v>1004</v>
+      </c>
+      <c r="K771" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="772" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A772" t="s">
+        <v>998</v>
+      </c>
+      <c r="B772" t="s">
+        <v>420</v>
+      </c>
+      <c r="C772" t="s">
+        <v>684</v>
+      </c>
+      <c r="D772" t="s">
+        <v>28</v>
+      </c>
+      <c r="E772">
+        <v>10.71</v>
+      </c>
+      <c r="F772" t="s">
+        <v>78</v>
+      </c>
+      <c r="G772">
+        <v>42.07</v>
+      </c>
+      <c r="H772" t="s">
+        <v>80</v>
+      </c>
+      <c r="J772" t="s">
+        <v>1006</v>
+      </c>
+      <c r="K772" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="773" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A773" t="s">
+        <v>998</v>
+      </c>
+      <c r="B773" t="s">
+        <v>420</v>
+      </c>
+      <c r="C773" t="s">
+        <v>430</v>
+      </c>
+      <c r="D773" t="s">
+        <v>28</v>
+      </c>
+      <c r="E773">
+        <v>2</v>
+      </c>
+      <c r="F773" t="s">
+        <v>78</v>
+      </c>
+      <c r="G773">
+        <v>10.35</v>
+      </c>
+      <c r="H773" t="s">
+        <v>80</v>
+      </c>
+      <c r="J773" t="s">
+        <v>1007</v>
+      </c>
+      <c r="K773" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="774" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A774" t="s">
+        <v>998</v>
+      </c>
+      <c r="B774" t="s">
+        <v>420</v>
+      </c>
+      <c r="C774" t="s">
+        <v>516</v>
+      </c>
+      <c r="D774" t="s">
+        <v>14</v>
+      </c>
+      <c r="E774">
+        <v>28.12</v>
+      </c>
+      <c r="F774" t="s">
+        <v>78</v>
+      </c>
+      <c r="G774">
+        <v>61.5</v>
+      </c>
+      <c r="H774" t="s">
+        <v>80</v>
+      </c>
+      <c r="J774" t="s">
+        <v>1008</v>
+      </c>
+      <c r="K774" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="775" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A775" t="s">
+        <v>998</v>
+      </c>
+      <c r="B775" t="s">
+        <v>420</v>
+      </c>
+      <c r="C775" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D775" t="s">
+        <v>14</v>
+      </c>
+      <c r="E775">
+        <v>37.840000000000003</v>
+      </c>
+      <c r="F775" t="s">
+        <v>78</v>
+      </c>
+      <c r="G775">
+        <v>98.19</v>
+      </c>
+      <c r="H775" t="s">
+        <v>80</v>
+      </c>
+      <c r="J775" t="s">
+        <v>1009</v>
+      </c>
+      <c r="K775" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="776" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A776" t="s">
+        <v>998</v>
+      </c>
+      <c r="B776" t="s">
+        <v>420</v>
+      </c>
+      <c r="C776" t="s">
+        <v>89</v>
+      </c>
+      <c r="D776" t="s">
+        <v>14</v>
+      </c>
+      <c r="E776">
+        <v>12.5</v>
+      </c>
+      <c r="F776" t="s">
+        <v>78</v>
+      </c>
+      <c r="G776">
+        <v>27.16</v>
+      </c>
+      <c r="H776" t="s">
+        <v>80</v>
+      </c>
+      <c r="J776" t="s">
+        <v>1010</v>
+      </c>
+      <c r="K776" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="777" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A777" t="s">
+        <v>998</v>
+      </c>
+      <c r="B777" t="s">
+        <v>418</v>
+      </c>
+      <c r="C777" t="s">
+        <v>683</v>
+      </c>
+      <c r="D777" t="s">
+        <v>14</v>
+      </c>
+      <c r="E777">
+        <v>65.19</v>
+      </c>
+      <c r="F777" t="s">
+        <v>78</v>
+      </c>
+      <c r="G777">
+        <v>89.61</v>
+      </c>
+      <c r="H777" t="s">
+        <v>80</v>
+      </c>
+      <c r="J777" t="s">
+        <v>1011</v>
+      </c>
+      <c r="K777" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="778" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A778" t="s">
+        <v>998</v>
+      </c>
+      <c r="B778" t="s">
+        <v>418</v>
+      </c>
+      <c r="C778" t="s">
+        <v>64</v>
+      </c>
+      <c r="D778" t="s">
+        <v>14</v>
+      </c>
+      <c r="E778">
+        <v>4</v>
+      </c>
+      <c r="F778" t="s">
+        <v>78</v>
+      </c>
+      <c r="G778">
+        <v>12</v>
+      </c>
+      <c r="H778" t="s">
+        <v>80</v>
+      </c>
+      <c r="J778" t="s">
+        <v>1012</v>
+      </c>
+      <c r="K778" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="779" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A779" t="s">
+        <v>998</v>
+      </c>
+      <c r="B779" t="s">
+        <v>418</v>
+      </c>
+      <c r="C779" t="s">
+        <v>16</v>
+      </c>
+      <c r="D779" t="s">
+        <v>14</v>
+      </c>
+      <c r="E779">
+        <v>7</v>
+      </c>
+      <c r="F779" t="s">
+        <v>78</v>
+      </c>
+      <c r="G779">
+        <v>16.2</v>
+      </c>
+      <c r="H779" t="s">
+        <v>80</v>
+      </c>
+      <c r="J779" t="s">
+        <v>1013</v>
+      </c>
+      <c r="K779" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="780" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A780" t="s">
+        <v>998</v>
+      </c>
+      <c r="B780" t="s">
+        <v>418</v>
+      </c>
+      <c r="C780" t="s">
+        <v>88</v>
+      </c>
+      <c r="D780" t="s">
+        <v>14</v>
+      </c>
+      <c r="E780">
+        <v>28.23</v>
+      </c>
+      <c r="F780" t="s">
+        <v>78</v>
+      </c>
+      <c r="G780">
+        <v>53.38</v>
+      </c>
+      <c r="H780" t="s">
+        <v>80</v>
+      </c>
+      <c r="J780" t="s">
+        <v>1014</v>
+      </c>
+      <c r="K780" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="781" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A781" t="s">
+        <v>998</v>
+      </c>
+      <c r="B781" t="s">
+        <v>418</v>
+      </c>
+      <c r="C781" t="s">
+        <v>238</v>
+      </c>
+      <c r="D781" t="s">
+        <v>14</v>
+      </c>
+      <c r="E781">
+        <v>19.29</v>
+      </c>
+      <c r="F781" t="s">
+        <v>78</v>
+      </c>
+      <c r="G781">
+        <v>42.3</v>
+      </c>
+      <c r="H781" t="s">
+        <v>80</v>
+      </c>
+      <c r="J781" t="s">
+        <v>1015</v>
+      </c>
+      <c r="K781" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="782" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A782" t="s">
+        <v>998</v>
+      </c>
+      <c r="B782" t="s">
+        <v>422</v>
+      </c>
+      <c r="C782" t="s">
+        <v>135</v>
+      </c>
+      <c r="D782" t="s">
+        <v>28</v>
+      </c>
+      <c r="E782">
+        <v>3.26</v>
+      </c>
+      <c r="F782" t="s">
+        <v>78</v>
+      </c>
+      <c r="G782">
+        <v>6.16</v>
+      </c>
+      <c r="H782" t="s">
+        <v>80</v>
+      </c>
+      <c r="J782" t="s">
+        <v>1016</v>
+      </c>
+      <c r="K782" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="783" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A783" t="s">
+        <v>998</v>
+      </c>
+      <c r="B783" t="s">
+        <v>422</v>
+      </c>
+      <c r="C783" t="s">
+        <v>516</v>
+      </c>
+      <c r="D783" t="s">
+        <v>14</v>
+      </c>
+      <c r="E783">
+        <v>31.97</v>
+      </c>
+      <c r="F783" t="s">
+        <v>78</v>
+      </c>
+      <c r="G783">
+        <v>58.18</v>
+      </c>
+      <c r="H783" t="s">
+        <v>80</v>
+      </c>
+      <c r="J783" t="s">
+        <v>1017</v>
+      </c>
+      <c r="K783" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="784" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A784" t="s">
+        <v>998</v>
+      </c>
+      <c r="B784" t="s">
+        <v>422</v>
+      </c>
+      <c r="C784" t="s">
+        <v>133</v>
+      </c>
+      <c r="D784" t="s">
+        <v>14</v>
+      </c>
+      <c r="E784">
+        <v>3.56</v>
+      </c>
+      <c r="F784" t="s">
+        <v>78</v>
+      </c>
+      <c r="G784">
+        <v>31.95</v>
+      </c>
+      <c r="H784" t="s">
+        <v>80</v>
+      </c>
+      <c r="J784" t="s">
+        <v>1018</v>
+      </c>
+      <c r="K784" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="785" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A785" t="s">
+        <v>998</v>
+      </c>
+      <c r="B785" t="s">
+        <v>422</v>
+      </c>
+      <c r="C785" t="s">
+        <v>683</v>
+      </c>
+      <c r="D785" t="s">
+        <v>14</v>
+      </c>
+      <c r="E785">
+        <v>66.67</v>
+      </c>
+      <c r="F785" t="s">
+        <v>78</v>
+      </c>
+      <c r="G785">
+        <v>87.87</v>
+      </c>
+      <c r="H785" t="s">
+        <v>80</v>
+      </c>
+      <c r="J785" t="s">
+        <v>1019</v>
+      </c>
+      <c r="K785" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="786" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A786" t="s">
+        <v>998</v>
+      </c>
+      <c r="B786" t="s">
+        <v>422</v>
+      </c>
+      <c r="C786" t="s">
+        <v>87</v>
+      </c>
+      <c r="D786" t="s">
+        <v>14</v>
+      </c>
+      <c r="E786">
+        <v>3.02</v>
+      </c>
+      <c r="F786" t="s">
+        <v>78</v>
+      </c>
+      <c r="G786">
+        <v>35.81</v>
+      </c>
+      <c r="H786" t="s">
+        <v>80</v>
+      </c>
+      <c r="J786" t="s">
+        <v>1020</v>
+      </c>
+      <c r="K786" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="787" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A787" t="s">
+        <v>998</v>
+      </c>
+      <c r="B787" t="s">
+        <v>425</v>
+      </c>
+      <c r="C787" t="s">
+        <v>16</v>
+      </c>
+      <c r="D787" t="s">
+        <v>14</v>
+      </c>
+      <c r="E787">
+        <v>1.55</v>
+      </c>
+      <c r="F787" t="s">
+        <v>78</v>
+      </c>
+      <c r="G787">
+        <v>10</v>
+      </c>
+      <c r="H787" t="s">
+        <v>80</v>
+      </c>
+      <c r="J787" t="s">
+        <v>1022</v>
+      </c>
+      <c r="K787" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="788" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A788" t="s">
+        <v>998</v>
+      </c>
+      <c r="B788" t="s">
+        <v>425</v>
+      </c>
+      <c r="C788" t="s">
+        <v>159</v>
+      </c>
+      <c r="D788" t="s">
+        <v>14</v>
+      </c>
+      <c r="E788">
+        <v>36.99</v>
+      </c>
+      <c r="F788" t="s">
+        <v>78</v>
+      </c>
+      <c r="G788">
+        <v>76.47</v>
+      </c>
+      <c r="H788" t="s">
+        <v>80</v>
+      </c>
+      <c r="J788" t="s">
+        <v>1023</v>
+      </c>
+      <c r="K788" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="789" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A789" t="s">
+        <v>998</v>
+      </c>
+      <c r="B789" t="s">
+        <v>425</v>
+      </c>
+      <c r="C789" t="s">
+        <v>90</v>
+      </c>
+      <c r="D789" t="s">
+        <v>14</v>
+      </c>
+      <c r="E789">
+        <v>3</v>
+      </c>
+      <c r="F789" t="s">
+        <v>78</v>
+      </c>
+      <c r="G789">
+        <v>11</v>
+      </c>
+      <c r="H789" t="s">
+        <v>80</v>
+      </c>
+      <c r="J789" t="s">
+        <v>1024</v>
+      </c>
+      <c r="K789" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="790" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A790" t="s">
+        <v>998</v>
+      </c>
+      <c r="B790" t="s">
+        <v>425</v>
+      </c>
+      <c r="C790" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D790" t="s">
+        <v>14</v>
+      </c>
+      <c r="E790">
+        <v>1.55</v>
+      </c>
+      <c r="F790" t="s">
+        <v>78</v>
+      </c>
+      <c r="G790">
+        <v>6.45</v>
+      </c>
+      <c r="H790" t="s">
+        <v>80</v>
+      </c>
+      <c r="J790" t="s">
+        <v>1025</v>
+      </c>
+      <c r="K790" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="791" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A791" t="s">
+        <v>998</v>
+      </c>
+      <c r="B791" t="s">
+        <v>423</v>
+      </c>
+      <c r="C791" t="s">
+        <v>135</v>
+      </c>
+      <c r="D791" t="s">
+        <v>28</v>
+      </c>
+      <c r="E791">
+        <v>3.93</v>
+      </c>
+      <c r="F791" t="s">
+        <v>78</v>
+      </c>
+      <c r="G791">
+        <v>6.74</v>
+      </c>
+      <c r="H791" t="s">
+        <v>80</v>
+      </c>
+      <c r="J791" t="s">
+        <v>1027</v>
+      </c>
+      <c r="K791" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="792" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A792" t="s">
+        <v>998</v>
+      </c>
+      <c r="B792" t="s">
+        <v>423</v>
+      </c>
+      <c r="C792" t="s">
+        <v>683</v>
+      </c>
+      <c r="D792" t="s">
+        <v>14</v>
+      </c>
+      <c r="E792">
+        <v>52.22</v>
+      </c>
+      <c r="F792" t="s">
+        <v>78</v>
+      </c>
+      <c r="G792">
+        <v>84.77</v>
+      </c>
+      <c r="H792" t="s">
+        <v>80</v>
+      </c>
+      <c r="J792" t="s">
+        <v>1028</v>
+      </c>
+      <c r="K792" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="793" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A793" t="s">
+        <v>998</v>
+      </c>
+      <c r="B793" t="s">
+        <v>423</v>
+      </c>
+      <c r="C793" t="s">
+        <v>90</v>
+      </c>
+      <c r="D793" t="s">
+        <v>14</v>
+      </c>
+      <c r="E793">
+        <v>4</v>
+      </c>
+      <c r="F793" t="s">
+        <v>78</v>
+      </c>
+      <c r="G793">
+        <v>12</v>
+      </c>
+      <c r="H793" t="s">
+        <v>80</v>
+      </c>
+      <c r="J793" t="s">
+        <v>1012</v>
+      </c>
+      <c r="K793" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="794" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A794" t="s">
+        <v>998</v>
+      </c>
+      <c r="B794" t="s">
+        <v>423</v>
+      </c>
+      <c r="C794" t="s">
+        <v>18</v>
+      </c>
+      <c r="D794" t="s">
+        <v>14</v>
+      </c>
+      <c r="E794">
+        <v>0.35</v>
+      </c>
+      <c r="F794" t="s">
+        <v>78</v>
+      </c>
+      <c r="G794">
+        <v>5</v>
+      </c>
+      <c r="H794" t="s">
+        <v>80</v>
+      </c>
+      <c r="J794" t="s">
+        <v>1029</v>
+      </c>
+      <c r="K794" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="795" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A795" t="s">
+        <v>998</v>
+      </c>
+      <c r="B795" t="s">
+        <v>423</v>
+      </c>
+      <c r="C795" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D795" t="s">
+        <v>14</v>
+      </c>
+      <c r="E795">
+        <v>1</v>
+      </c>
+      <c r="F795" t="s">
+        <v>78</v>
+      </c>
+      <c r="G795">
+        <v>6</v>
+      </c>
+      <c r="H795" t="s">
+        <v>80</v>
+      </c>
+      <c r="J795" t="s">
+        <v>1030</v>
+      </c>
+      <c r="K795" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="796" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A796" t="s">
+        <v>998</v>
+      </c>
+      <c r="B796" t="s">
+        <v>424</v>
+      </c>
+      <c r="C796" t="s">
+        <v>135</v>
+      </c>
+      <c r="D796" t="s">
+        <v>28</v>
+      </c>
+      <c r="E796">
+        <v>4.43</v>
+      </c>
+      <c r="F796" t="s">
+        <v>78</v>
+      </c>
+      <c r="G796">
+        <v>7.08</v>
+      </c>
+      <c r="H796" t="s">
+        <v>80</v>
+      </c>
+      <c r="J796" t="s">
+        <v>1032</v>
+      </c>
+      <c r="K796" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="797" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A797" t="s">
+        <v>998</v>
+      </c>
+      <c r="B797" t="s">
+        <v>424</v>
+      </c>
+      <c r="C797" t="s">
+        <v>683</v>
+      </c>
+      <c r="D797" t="s">
+        <v>14</v>
+      </c>
+      <c r="E797">
+        <v>50</v>
+      </c>
+      <c r="F797" t="s">
+        <v>78</v>
+      </c>
+      <c r="G797">
+        <v>82.19</v>
+      </c>
+      <c r="H797" t="s">
+        <v>80</v>
+      </c>
+      <c r="J797" t="s">
+        <v>1033</v>
+      </c>
+      <c r="K797" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="798" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A798" t="s">
+        <v>998</v>
+      </c>
+      <c r="B798" t="s">
+        <v>424</v>
+      </c>
+      <c r="C798" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D798" t="s">
+        <v>14</v>
+      </c>
+      <c r="E798">
+        <v>1.9</v>
+      </c>
+      <c r="F798" t="s">
+        <v>78</v>
+      </c>
+      <c r="G798">
+        <v>14.1</v>
+      </c>
+      <c r="H798" t="s">
+        <v>80</v>
+      </c>
+      <c r="J798" t="s">
+        <v>1034</v>
+      </c>
+      <c r="K798" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="799" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A799" t="s">
+        <v>998</v>
+      </c>
+      <c r="B799" t="s">
+        <v>424</v>
+      </c>
+      <c r="C799" t="s">
+        <v>90</v>
+      </c>
+      <c r="D799" t="s">
+        <v>14</v>
+      </c>
+      <c r="E799">
+        <v>2</v>
+      </c>
+      <c r="F799" t="s">
+        <v>78</v>
+      </c>
+      <c r="G799">
+        <v>12</v>
+      </c>
+      <c r="H799" t="s">
+        <v>80</v>
+      </c>
+      <c r="J799" t="s">
+        <v>1035</v>
+      </c>
+      <c r="K799" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="800" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A800" t="s">
+        <v>998</v>
+      </c>
+      <c r="B800" t="s">
+        <v>424</v>
+      </c>
+      <c r="C800" t="s">
+        <v>179</v>
+      </c>
+      <c r="D800" t="s">
+        <v>14</v>
+      </c>
+      <c r="E800">
+        <v>1</v>
+      </c>
+      <c r="F800" t="s">
+        <v>78</v>
+      </c>
+      <c r="G800">
+        <v>7</v>
+      </c>
+      <c r="H800" t="s">
+        <v>80</v>
+      </c>
+      <c r="J800" t="s">
+        <v>1036</v>
+      </c>
+      <c r="K800" t="s">
+        <v>446</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AP767" xr:uid="{93A70181-B22C-4671-9C22-4B8DA5FE66AB}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="MIEGLE_2020"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:AP767" xr:uid="{93A70181-B22C-4671-9C22-4B8DA5FE66AB}"/>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="C677:C724">
     <cfRule type="cellIs" dxfId="120" priority="1" operator="equal">
@@ -38925,25 +40103,25 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D560">
-    <cfRule type="cellIs" dxfId="119" priority="110" operator="equal">
-      <formula>"Increase"</formula>
+    <cfRule type="cellIs" dxfId="119" priority="108" operator="equal">
+      <formula>"NA"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="118" priority="109" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="108" operator="equal">
-      <formula>"NA"</formula>
+    <cfRule type="cellIs" dxfId="117" priority="110" operator="equal">
+      <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D562:D563 D568:D569 D571:D575 D577 D579:D581 D583 D586 D588:D590 D607:D608 D613 D627:D628 D655:D656 D659 D663:D665 D667">
-    <cfRule type="cellIs" dxfId="116" priority="84" operator="equal">
-      <formula>"Increase"</formula>
+    <cfRule type="cellIs" dxfId="116" priority="82" operator="equal">
+      <formula>"NA"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="115" priority="83" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="82" operator="equal">
-      <formula>"NA"</formula>
+    <cfRule type="cellIs" dxfId="114" priority="84" operator="equal">
+      <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D596:D598 D604">
@@ -38969,14 +40147,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D637:D638">
-    <cfRule type="cellIs" dxfId="107" priority="66" operator="equal">
-      <formula>"Increase"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="64" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="65" operator="equal">
       <formula>""</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="105" priority="66" operator="equal">
+      <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D647:D648">
@@ -39005,22 +40183,22 @@
     <cfRule type="cellIs" dxfId="98" priority="16" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="17" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="96" priority="18" operator="equal">
       <formula>"Increase"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="17" operator="equal">
-      <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D686">
-    <cfRule type="cellIs" dxfId="95" priority="21" operator="equal">
-      <formula>"Increase"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="19" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="20" operator="equal">
       <formula>""</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="93" priority="21" operator="equal">
+      <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D691:D694">
@@ -39057,17 +40235,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D714:D716">
-    <cfRule type="cellIs" dxfId="83" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="4" operator="equal">
+      <formula>"NA"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="82" priority="5" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="6" operator="equal">
       <formula>"Increase"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="4" operator="equal">
-      <formula>"NA"</formula>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D720:D724 D735:D767">
+  <conditionalFormatting sqref="D720:D724 D735:D800">
     <cfRule type="cellIs" dxfId="80" priority="31" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
@@ -39079,25 +40257,25 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D726:D727">
-    <cfRule type="cellIs" dxfId="77" priority="49" operator="equal">
-      <formula>"Increase"</formula>
+    <cfRule type="cellIs" dxfId="77" priority="47" operator="equal">
+      <formula>"NA"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="76" priority="48" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="47" operator="equal">
-      <formula>"NA"</formula>
+    <cfRule type="cellIs" dxfId="75" priority="49" operator="equal">
+      <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D730:D731">
-    <cfRule type="cellIs" dxfId="74" priority="43" operator="equal">
-      <formula>"Increase"</formula>
+    <cfRule type="cellIs" dxfId="74" priority="41" operator="equal">
+      <formula>"NA"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="73" priority="42" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="41" operator="equal">
-      <formula>"NA"</formula>
+    <cfRule type="cellIs" dxfId="72" priority="43" operator="equal">
+      <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D733">
@@ -39120,11 +40298,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E204:E205 E208 E216 E218:E219 E228:E231">
-    <cfRule type="cellIs" dxfId="66" priority="429" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="428" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="65" priority="429" operator="equal">
       <formula>"Increase"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="428" operator="equal">
-      <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E401 E413 E425 E437:F437 E449:F449">
@@ -39152,11 +40330,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E427">
-    <cfRule type="cellIs" dxfId="58" priority="214" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="213" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="57" priority="214" operator="equal">
       <formula>"Increase"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="213" operator="equal">
-      <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E430">
@@ -39176,27 +40354,27 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E269:F269 F270">
-    <cfRule type="cellIs" dxfId="52" priority="394" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="393" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="51" priority="394" operator="equal">
       <formula>"Increase"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="393" operator="equal">
-      <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E403:F403">
-    <cfRule type="cellIs" dxfId="50" priority="180" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="179" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="180" operator="equal">
       <formula>"Increase"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="179" operator="equal">
-      <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E461:F463">
-    <cfRule type="cellIs" dxfId="48" priority="212" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="211" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="47" priority="212" operator="equal">
       <formula>"Increase"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="211" operator="equal">
-      <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E468:F469">
@@ -39208,11 +40386,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F191 E192:F192">
-    <cfRule type="cellIs" dxfId="44" priority="507" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="506" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="43" priority="507" operator="equal">
       <formula>"Increase"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="506" operator="equal">
-      <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F193:F214">
@@ -39405,16 +40583,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{544F088F-E018-4AF1-A817-C6B9859D0A47}">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:Z103"/>
+  <dimension ref="A1:Z110"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G86" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G92" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H104" sqref="H104"/>
+      <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39516,7 +40694,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="2" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>524</v>
       </c>
@@ -39578,7 +40756,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="3" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>524</v>
       </c>
@@ -39640,7 +40818,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="4" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>524</v>
       </c>
@@ -39702,7 +40880,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="5" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>525</v>
       </c>
@@ -39764,7 +40942,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="6" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>525</v>
       </c>
@@ -39826,7 +41004,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="7" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>525</v>
       </c>
@@ -39888,7 +41066,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="8" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>525</v>
       </c>
@@ -39950,7 +41128,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="9" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>526</v>
       </c>
@@ -40012,7 +41190,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="10" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>526</v>
       </c>
@@ -40074,7 +41252,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="11" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>527</v>
       </c>
@@ -40130,7 +41308,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="12" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>292</v>
       </c>
@@ -40180,7 +41358,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="13" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>292</v>
       </c>
@@ -40230,7 +41408,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="14" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>292</v>
       </c>
@@ -40280,7 +41458,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="15" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>292</v>
       </c>
@@ -40330,7 +41508,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="16" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>294</v>
       </c>
@@ -40398,7 +41576,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="17" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>294</v>
       </c>
@@ -40466,7 +41644,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="18" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>294</v>
       </c>
@@ -40534,7 +41712,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="19" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>295</v>
       </c>
@@ -40590,7 +41768,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="20" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>295</v>
       </c>
@@ -40646,7 +41824,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="21" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>295</v>
       </c>
@@ -40702,7 +41880,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="22" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>295</v>
       </c>
@@ -40758,7 +41936,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="23" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>295</v>
       </c>
@@ -40814,7 +41992,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="24" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>295</v>
       </c>
@@ -40870,7 +42048,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="25" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>295</v>
       </c>
@@ -40926,7 +42104,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="26" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>295</v>
       </c>
@@ -40982,7 +42160,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="27" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>295</v>
       </c>
@@ -41038,7 +42216,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="28" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>295</v>
       </c>
@@ -41088,7 +42266,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="29" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>506</v>
       </c>
@@ -41150,7 +42328,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="30" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>506</v>
       </c>
@@ -41212,7 +42390,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="31" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>506</v>
       </c>
@@ -41274,7 +42452,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="32" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>506</v>
       </c>
@@ -41336,7 +42514,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="33" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>506</v>
       </c>
@@ -41398,7 +42576,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="34" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>503</v>
       </c>
@@ -41442,7 +42620,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="35" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>272</v>
       </c>
@@ -41498,7 +42676,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="36" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>272</v>
       </c>
@@ -41554,7 +42732,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="37" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>272</v>
       </c>
@@ -41610,7 +42788,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="38" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>272</v>
       </c>
@@ -41666,7 +42844,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="39" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>300</v>
       </c>
@@ -41734,7 +42912,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="40" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>300</v>
       </c>
@@ -41802,7 +42980,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="41" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>300</v>
       </c>
@@ -41870,7 +43048,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="42" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>300</v>
       </c>
@@ -41938,7 +43116,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="43" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>300</v>
       </c>
@@ -42006,7 +43184,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="44" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>300</v>
       </c>
@@ -42074,7 +43252,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="45" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>389</v>
       </c>
@@ -42118,7 +43296,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="46" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>389</v>
       </c>
@@ -42162,7 +43340,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="47" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>394</v>
       </c>
@@ -42224,7 +43402,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="48" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>394</v>
       </c>
@@ -42286,7 +43464,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="49" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>394</v>
       </c>
@@ -42348,7 +43526,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="50" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>394</v>
       </c>
@@ -42410,7 +43588,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="51" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>394</v>
       </c>
@@ -42472,7 +43650,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="52" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>394</v>
       </c>
@@ -42534,7 +43712,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="53" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>394</v>
       </c>
@@ -42596,7 +43774,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="54" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>417</v>
       </c>
@@ -42658,7 +43836,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="55" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>417</v>
       </c>
@@ -42720,7 +43898,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="56" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>417</v>
       </c>
@@ -42782,7 +43960,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="57" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>417</v>
       </c>
@@ -42844,7 +44022,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="58" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>417</v>
       </c>
@@ -42906,7 +44084,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="59" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>417</v>
       </c>
@@ -42968,7 +44146,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="60" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>417</v>
       </c>
@@ -43030,7 +44208,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="61" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>479</v>
       </c>
@@ -43098,7 +44276,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="62" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>479</v>
       </c>
@@ -43166,7 +44344,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="63" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>479</v>
       </c>
@@ -43234,7 +44412,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="64" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>479</v>
       </c>
@@ -43302,7 +44480,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="65" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>479</v>
       </c>
@@ -43370,7 +44548,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="66" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>479</v>
       </c>
@@ -43438,7 +44616,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="67" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>542</v>
       </c>
@@ -43509,7 +44687,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="68" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>542</v>
       </c>
@@ -43580,7 +44758,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="69" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>542</v>
       </c>
@@ -43651,7 +44829,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="70" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>563</v>
       </c>
@@ -43713,7 +44891,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="71" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>563</v>
       </c>
@@ -43775,7 +44953,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="72" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>563</v>
       </c>
@@ -43837,7 +45015,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="73" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>584</v>
       </c>
@@ -43899,7 +45077,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="74" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>602</v>
       </c>
@@ -43961,7 +45139,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="75" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>602</v>
       </c>
@@ -44023,7 +45201,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="76" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>643</v>
       </c>
@@ -44085,7 +45263,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="77" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>657</v>
       </c>
@@ -44147,7 +45325,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="78" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>658</v>
       </c>
@@ -44209,7 +45387,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="79" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>659</v>
       </c>
@@ -44277,7 +45455,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="80" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>669</v>
       </c>
@@ -44321,7 +45499,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="81" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>669</v>
       </c>
@@ -44365,7 +45543,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="82" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>669</v>
       </c>
@@ -44409,7 +45587,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="83" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>701</v>
       </c>
@@ -44465,7 +45643,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="84" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>701</v>
       </c>
@@ -44521,7 +45699,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="85" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>701</v>
       </c>
@@ -45855,15 +47033,442 @@
         <v>736</v>
       </c>
     </row>
+    <row r="104" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>998</v>
+      </c>
+      <c r="B104" t="s">
+        <v>418</v>
+      </c>
+      <c r="C104" t="s">
+        <v>100</v>
+      </c>
+      <c r="D104">
+        <v>5</v>
+      </c>
+      <c r="E104" t="s">
+        <v>106</v>
+      </c>
+      <c r="G104" t="s">
+        <v>998</v>
+      </c>
+      <c r="H104">
+        <v>4</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>25</v>
+      </c>
+      <c r="K104">
+        <v>50</v>
+      </c>
+      <c r="L104">
+        <v>75</v>
+      </c>
+      <c r="M104">
+        <v>100</v>
+      </c>
+      <c r="P104" t="s">
+        <v>459</v>
+      </c>
+      <c r="Q104" t="s">
+        <v>460</v>
+      </c>
+      <c r="R104" t="s">
+        <v>461</v>
+      </c>
+      <c r="S104" t="s">
+        <v>462</v>
+      </c>
+      <c r="V104" t="b">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s">
+        <v>78</v>
+      </c>
+      <c r="X104" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y104" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="105" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>998</v>
+      </c>
+      <c r="B105" t="s">
+        <v>420</v>
+      </c>
+      <c r="C105" t="s">
+        <v>100</v>
+      </c>
+      <c r="D105">
+        <v>5</v>
+      </c>
+      <c r="E105" t="s">
+        <v>106</v>
+      </c>
+      <c r="G105" t="s">
+        <v>998</v>
+      </c>
+      <c r="H105">
+        <v>4</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <v>25</v>
+      </c>
+      <c r="K105">
+        <v>50</v>
+      </c>
+      <c r="L105">
+        <v>75</v>
+      </c>
+      <c r="M105">
+        <v>100</v>
+      </c>
+      <c r="P105" t="s">
+        <v>459</v>
+      </c>
+      <c r="Q105" t="s">
+        <v>460</v>
+      </c>
+      <c r="R105" t="s">
+        <v>461</v>
+      </c>
+      <c r="S105" t="s">
+        <v>462</v>
+      </c>
+      <c r="V105" t="b">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s">
+        <v>78</v>
+      </c>
+      <c r="X105" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y105" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="106" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>998</v>
+      </c>
+      <c r="B106" t="s">
+        <v>421</v>
+      </c>
+      <c r="C106" t="s">
+        <v>100</v>
+      </c>
+      <c r="D106">
+        <v>4</v>
+      </c>
+      <c r="E106" t="s">
+        <v>106</v>
+      </c>
+      <c r="G106" t="s">
+        <v>998</v>
+      </c>
+      <c r="H106">
+        <v>4</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <v>25</v>
+      </c>
+      <c r="K106">
+        <v>50</v>
+      </c>
+      <c r="L106">
+        <v>75</v>
+      </c>
+      <c r="M106">
+        <v>100</v>
+      </c>
+      <c r="P106" t="s">
+        <v>459</v>
+      </c>
+      <c r="Q106" t="s">
+        <v>460</v>
+      </c>
+      <c r="R106" t="s">
+        <v>461</v>
+      </c>
+      <c r="S106" t="s">
+        <v>462</v>
+      </c>
+      <c r="V106" t="b">
+        <v>0</v>
+      </c>
+      <c r="W106" t="s">
+        <v>78</v>
+      </c>
+      <c r="X106" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y106" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="107" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>998</v>
+      </c>
+      <c r="B107" t="s">
+        <v>422</v>
+      </c>
+      <c r="C107" t="s">
+        <v>100</v>
+      </c>
+      <c r="D107">
+        <v>5</v>
+      </c>
+      <c r="E107" t="s">
+        <v>106</v>
+      </c>
+      <c r="G107" t="s">
+        <v>998</v>
+      </c>
+      <c r="H107">
+        <v>4</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>25</v>
+      </c>
+      <c r="K107">
+        <v>50</v>
+      </c>
+      <c r="L107">
+        <v>75</v>
+      </c>
+      <c r="M107">
+        <v>100</v>
+      </c>
+      <c r="P107" t="s">
+        <v>459</v>
+      </c>
+      <c r="Q107" t="s">
+        <v>460</v>
+      </c>
+      <c r="R107" t="s">
+        <v>461</v>
+      </c>
+      <c r="S107" t="s">
+        <v>462</v>
+      </c>
+      <c r="V107" t="b">
+        <v>0</v>
+      </c>
+      <c r="W107" t="s">
+        <v>78</v>
+      </c>
+      <c r="X107" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y107" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="108" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>998</v>
+      </c>
+      <c r="B108" t="s">
+        <v>423</v>
+      </c>
+      <c r="C108" t="s">
+        <v>100</v>
+      </c>
+      <c r="D108">
+        <v>5</v>
+      </c>
+      <c r="E108" t="s">
+        <v>106</v>
+      </c>
+      <c r="G108" t="s">
+        <v>998</v>
+      </c>
+      <c r="H108">
+        <v>4</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>25</v>
+      </c>
+      <c r="K108">
+        <v>50</v>
+      </c>
+      <c r="L108">
+        <v>75</v>
+      </c>
+      <c r="M108">
+        <v>100</v>
+      </c>
+      <c r="P108" t="s">
+        <v>459</v>
+      </c>
+      <c r="Q108" t="s">
+        <v>460</v>
+      </c>
+      <c r="R108" t="s">
+        <v>461</v>
+      </c>
+      <c r="S108" t="s">
+        <v>462</v>
+      </c>
+      <c r="V108" t="b">
+        <v>0</v>
+      </c>
+      <c r="W108" t="s">
+        <v>78</v>
+      </c>
+      <c r="X108" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y108" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="109" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>998</v>
+      </c>
+      <c r="B109" t="s">
+        <v>424</v>
+      </c>
+      <c r="C109" t="s">
+        <v>100</v>
+      </c>
+      <c r="D109">
+        <v>5</v>
+      </c>
+      <c r="E109" t="s">
+        <v>106</v>
+      </c>
+      <c r="G109" t="s">
+        <v>998</v>
+      </c>
+      <c r="H109">
+        <v>4</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109">
+        <v>25</v>
+      </c>
+      <c r="K109">
+        <v>50</v>
+      </c>
+      <c r="L109">
+        <v>75</v>
+      </c>
+      <c r="M109">
+        <v>100</v>
+      </c>
+      <c r="P109" t="s">
+        <v>459</v>
+      </c>
+      <c r="Q109" t="s">
+        <v>460</v>
+      </c>
+      <c r="R109" t="s">
+        <v>461</v>
+      </c>
+      <c r="S109" t="s">
+        <v>462</v>
+      </c>
+      <c r="V109" t="b">
+        <v>0</v>
+      </c>
+      <c r="W109" t="s">
+        <v>78</v>
+      </c>
+      <c r="X109" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y109" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="110" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>998</v>
+      </c>
+      <c r="B110" t="s">
+        <v>425</v>
+      </c>
+      <c r="C110" t="s">
+        <v>100</v>
+      </c>
+      <c r="D110">
+        <v>4</v>
+      </c>
+      <c r="E110" t="s">
+        <v>106</v>
+      </c>
+      <c r="G110" t="s">
+        <v>998</v>
+      </c>
+      <c r="H110">
+        <v>4</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110">
+        <v>25</v>
+      </c>
+      <c r="K110">
+        <v>50</v>
+      </c>
+      <c r="L110">
+        <v>75</v>
+      </c>
+      <c r="M110">
+        <v>100</v>
+      </c>
+      <c r="P110" t="s">
+        <v>459</v>
+      </c>
+      <c r="Q110" t="s">
+        <v>460</v>
+      </c>
+      <c r="R110" t="s">
+        <v>461</v>
+      </c>
+      <c r="S110" t="s">
+        <v>462</v>
+      </c>
+      <c r="V110" t="b">
+        <v>0</v>
+      </c>
+      <c r="W110" t="s">
+        <v>78</v>
+      </c>
+      <c r="X110" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y110" t="s">
+        <v>446</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:Z103" xr:uid="{544F088F-E018-4AF1-A817-C6B9859D0A47}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="MN_IBI_Bugs"/>
-        <filter val="MN_IBI_Fish"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:Z103" xr:uid="{544F088F-E018-4AF1-A817-C6B9859D0A47}"/>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -45872,7 +47477,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BB61F63-921C-4D79-B43A-73F58D6664BB}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
@@ -45920,7 +47525,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="str" cm="1">
-        <f t="array" ref="A4:A28">_xlfn.UNIQUE(metric.scoring!A2:A999)</f>
+        <f t="array" ref="A4:A29">_xlfn.UNIQUE(metric.scoring!A2:A999)</f>
         <v>MBSS_2005_Bugs</v>
       </c>
       <c r="B4" cm="1">
@@ -46328,19 +47933,24 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>0</v>
+      <c r="A28" t="str">
+        <v>EGLE_2025</v>
       </c>
       <c r="B28" cm="1">
         <f t="array" ref="B28">MAX(IF(metric.scoring!$A$2:$A$999=$A28,LEN(metric.scoring!$E$2:$E$999)))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C28" cm="1">
         <f t="array" ref="C28">MAX(IF(metric.scoring!$A$2:$A$999=$A28,LEN(metric.scoring!$G$2:$G$999)))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D28">
         <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
         <v>0</v>
       </c>
     </row>
@@ -48721,6 +50331,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100557C7523FAC84E43A0DA62C173857381" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e4b9ddb1302998b61081aed2913076a6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="9bb5d252-d316-43f0-83d0-ec4a335d3ce7" xmlns:ns4="c0f75fa0-0a50-44a1-84b6-f6a4c66e6868" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3079d22dc9190cbddbf9f4c007b8016d" ns3:_="" ns4:_="">
     <xsd:import namespace="9bb5d252-d316-43f0-83d0-ec4a335d3ce7"/>
@@ -48943,22 +50568,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFD8027B-57D9-4B92-B1B3-871595BA197C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="c0f75fa0-0a50-44a1-84b6-f6a4c66e6868"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="9bb5d252-d316-43f0-83d0-ec4a335d3ce7"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{499CACD6-B6F0-4CF9-927E-84E37D5EF230}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19304C29-C31A-47A1-B855-8D09E823E92C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -48975,29 +50610,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{499CACD6-B6F0-4CF9-927E-84E37D5EF230}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFD8027B-57D9-4B92-B1B3-871595BA197C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="c0f75fa0-0a50-44a1-84b6-f6a4c66e6868"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="9bb5d252-d316-43f0-83d0-ec4a335d3ce7"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/inst/extdata/MetricScoring.xlsx
+++ b/inst/extdata/MetricScoring.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tetratechinc-my.sharepoint.com/personal/ben_block_tetratech_com/Documents/GitHub/BioMonTools_BenB/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="200" documentId="6_{E1038586-8D02-4FF7-859A-8FC7A176EA6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F1E4719-5FC6-454E-A3C7-2E98B7B41935}"/>
+  <xr:revisionPtr revIDLastSave="380" documentId="6_{E1038586-8D02-4FF7-859A-8FC7A176EA6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{525986CC-A4E5-41E1-955D-10ACAC0DC303}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NOTES" sheetId="1" r:id="rId1"/>
@@ -1671,7 +1671,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9937" uniqueCount="1037">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9953" uniqueCount="1039">
   <si>
     <t>Erik.Leppo@tetratech.com</t>
   </si>
@@ -4673,115 +4673,121 @@
     <t>pt_habit_sprawl</t>
   </si>
   <si>
-    <t>x_Evenness</t>
-  </si>
-  <si>
-    <t>100 * (6 - metric) / (6 - 3.05)</t>
-  </si>
-  <si>
     <t>100 * (metric - 8.77) / (25.88 - 8.77)</t>
   </si>
   <si>
-    <t>100 * (metric - 26.72) / (59.82 - 26.72)</t>
-  </si>
-  <si>
-    <t>100 * (metric - 0.47) / (0.82 - 0.47)</t>
-  </si>
-  <si>
-    <t>pi_Insect</t>
-  </si>
-  <si>
-    <t>100 * (42.07 - metric) / (42.07 - 10.71)</t>
-  </si>
-  <si>
     <t>100 * (10.35 - metric) / (10.35 - 2)</t>
   </si>
   <si>
     <t>100 * (metric - 28.12) / (61.5 - 28.12)</t>
   </si>
   <si>
-    <t>100 * (metric - 37.84) / (98.19 - 37.84)</t>
-  </si>
-  <si>
     <t>100 * (metric - 12.5) / (27.16 - 12.5)</t>
   </si>
   <si>
-    <t>100 * (metric - 65.19) / (89.61 - 65.19)</t>
-  </si>
-  <si>
     <t>100 * (metric - 4) / (12 - 4)</t>
   </si>
   <si>
     <t>100 * (metric - 7) / (16.2 - 7)</t>
   </si>
   <si>
-    <t>100 * (metric - 28.23) / (53.38 - 28.23)</t>
-  </si>
-  <si>
     <t>100 * (metric - 19.29) / (42.3 - 19.29)</t>
   </si>
   <si>
-    <t>100 * (6.16 - metric) / (6.16 - 3.26)</t>
-  </si>
-  <si>
     <t>100 * (metric - 31.97) / (58.18 - 31.97)</t>
   </si>
   <si>
     <t>100 * (metric - 3.56) / (31.95 - 3.56)</t>
   </si>
   <si>
-    <t>100 * (metric - 66.67) / (87.87 - 66.67)</t>
-  </si>
-  <si>
     <t>100 * (metric - 3.02) / (35.81 - 3.02)</t>
   </si>
   <si>
-    <t>nt_habit_burrow</t>
-  </si>
-  <si>
     <t>100 * (metric - 1.55) / (10 - 1.55)</t>
   </si>
   <si>
     <t>100 * (metric - 36.99) / (76.47 - 36.99)</t>
   </si>
   <si>
-    <t>100 * (metric - 3) / (11 - 3)</t>
-  </si>
-  <si>
-    <t>100 * (metric - 1.55) / (6.45 - 1.55)</t>
-  </si>
-  <si>
-    <t>nt_ffg_filt</t>
-  </si>
-  <si>
-    <t>100 * (6.74 - metric) / (6.74 - 3.93)</t>
-  </si>
-  <si>
     <t>100 * (metric - 52.22) / (84.77 - 52.22)</t>
   </si>
   <si>
-    <t>100 * (metric - 0.35) / (5 - 0.35)</t>
-  </si>
-  <si>
-    <t>100 * (metric - 1) / (6 - 1)</t>
-  </si>
-  <si>
-    <t>nt_ECT</t>
-  </si>
-  <si>
-    <t>100 * (7.08 - metric) / (7.08 - 4.43)</t>
-  </si>
-  <si>
     <t>100 * (metric - 50) / (82.19 - 50)</t>
   </si>
   <si>
-    <t>100 * (metric - 1.9) / (14.1 - 1.9)</t>
-  </si>
-  <si>
     <t>100 * (metric - 2) / (12 - 2)</t>
   </si>
   <si>
-    <t>100 * (metric - 1) / (7 - 1)</t>
+    <t>nt_POET</t>
+  </si>
+  <si>
+    <t>pt_ffg_scrap</t>
+  </si>
+  <si>
+    <t>pt_habit_swim</t>
+  </si>
+  <si>
+    <t>pi_OligoHiru</t>
+  </si>
+  <si>
+    <t>100 * (56.3 - metric) / (56.3 - 1.23)</t>
+  </si>
+  <si>
+    <t>100 * (66.54 - metric) / (66.54 - 1.93)</t>
+  </si>
+  <si>
+    <t>100 * (32.98 - metric) / (32.98 - 9.18)</t>
+  </si>
+  <si>
+    <t>100 * (metric - 5.2) / (18 - 5.2)</t>
+  </si>
+  <si>
+    <t>100 * (metric - 4.2) / (24 - 4.2)</t>
+  </si>
+  <si>
+    <t>100 * (52.68 - metric) / (52.68 - 0.86)</t>
+  </si>
+  <si>
+    <t>100 * (8 - metric) / (8 - 1)</t>
+  </si>
+  <si>
+    <t>100 * (19.48 - metric) / (19.48 - 0)</t>
+  </si>
+  <si>
+    <t>100 * (21.62 - metric) / (21.62 - 6.62)</t>
+  </si>
+  <si>
+    <t>100 * (39.39 - metric) / (39.39 - 3.44)</t>
+  </si>
+  <si>
+    <t>100 * (30.01 - metric) / (30.01 - 0.91)</t>
+  </si>
+  <si>
+    <t>100 * (38.41 - metric) / (38.41 - 3.89)</t>
+  </si>
+  <si>
+    <t>100 * (44.9 - metric) / (44.9 - 17.81)</t>
+  </si>
+  <si>
+    <t>100 * (27.78 - metric) / (27.78 - 5.8)</t>
+  </si>
+  <si>
+    <t>100 * (metric - 55.56) / (82.61 - 55.56)</t>
+  </si>
+  <si>
+    <t>100 * (58.65 - metric) / (58.65 - 21)</t>
+  </si>
+  <si>
+    <t>100 * (metric - 17) / (35 - 17)</t>
+  </si>
+  <si>
+    <t>100 * (60 - metric) / (60 - 27.18)</t>
+  </si>
+  <si>
+    <t>100 * (35.38 - metric) / (35.38 - 0.31)</t>
+  </si>
+  <si>
+    <t>100 * (42.86 - metric) / (42.86 - 18.18)</t>
   </si>
 </sst>
 </file>
@@ -4931,7 +4937,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5013,6 +5019,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -5054,7 +5066,7 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3"/>
@@ -5099,6 +5111,8 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="6" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Bad" xfId="6" builtinId="27"/>
@@ -5540,11 +5554,41 @@
     </dxf>
     <dxf>
       <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5610,11 +5654,61 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color auto="1"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5680,21 +5774,21 @@
     </dxf>
     <dxf>
       <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5740,11 +5834,21 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color rgb="FF9C5700"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5770,11 +5874,71 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color auto="1"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5890,6 +6054,26 @@
     </dxf>
     <dxf>
       <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -5905,6 +6089,16 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5980,16 +6174,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color auto="1"/>
       </font>
       <fill>
@@ -6005,6 +6189,16 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6070,11 +6264,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color rgb="FF9C5700"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6090,21 +6284,21 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6120,191 +6314,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6660,7 +6674,7 @@
   </sheetPr>
   <dimension ref="A1:E111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A112" sqref="A112"/>
     </sheetView>
@@ -7465,7 +7479,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="5">
-        <v>45986</v>
+        <v>45995</v>
       </c>
       <c r="B111" t="s">
         <v>997</v>
@@ -7499,14 +7513,14 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:AP800"/>
+  <dimension ref="A1:AP802"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D776" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D781" activePane="bottomRight" state="frozen"/>
       <selection activeCell="Q1" sqref="Q1:V1"/>
       <selection pane="topRight" activeCell="Q1" sqref="Q1:V1"/>
       <selection pane="bottomLeft" activeCell="Q1" sqref="Q1:V1"/>
-      <selection pane="bottomRight" activeCell="A794" sqref="A794"/>
+      <selection pane="bottomRight" activeCell="A789" sqref="A789"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -39039,1058 +39053,1144 @@
       </c>
     </row>
     <row r="768" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A768" t="s">
+      <c r="A768" s="32" t="s">
         <v>998</v>
       </c>
-      <c r="B768" t="s">
+      <c r="B768" s="32" t="s">
         <v>421</v>
       </c>
-      <c r="C768" t="s">
-        <v>135</v>
-      </c>
-      <c r="D768" t="s">
+      <c r="C768" s="32" t="s">
+        <v>239</v>
+      </c>
+      <c r="D768" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="E768">
-        <v>3.05</v>
-      </c>
-      <c r="F768" t="s">
-        <v>78</v>
-      </c>
-      <c r="G768">
-        <v>6</v>
-      </c>
-      <c r="H768" t="s">
+      <c r="E768" s="32">
+        <v>1.23</v>
+      </c>
+      <c r="F768" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="G768" s="32">
+        <v>56.3</v>
+      </c>
+      <c r="H768" s="32" t="s">
         <v>80</v>
       </c>
+      <c r="I768" s="33"/>
       <c r="J768" t="s">
+        <v>1019</v>
+      </c>
+      <c r="K768" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="769" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A769" s="32" t="s">
+        <v>998</v>
+      </c>
+      <c r="B769" s="32" t="s">
+        <v>421</v>
+      </c>
+      <c r="C769" s="32" t="s">
+        <v>400</v>
+      </c>
+      <c r="D769" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="E769" s="32">
+        <v>1.93</v>
+      </c>
+      <c r="F769" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="G769" s="32">
+        <v>66.540000000000006</v>
+      </c>
+      <c r="H769" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="I769" s="33"/>
+      <c r="J769" t="s">
+        <v>1020</v>
+      </c>
+      <c r="K769" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="770" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A770" s="32" t="s">
+        <v>998</v>
+      </c>
+      <c r="B770" s="32" t="s">
+        <v>421</v>
+      </c>
+      <c r="C770" s="32" t="s">
+        <v>186</v>
+      </c>
+      <c r="D770" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="E770" s="32">
+        <v>9.18</v>
+      </c>
+      <c r="F770" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="G770" s="32">
+        <v>32.979999999999997</v>
+      </c>
+      <c r="H770" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="I770" s="33"/>
+      <c r="J770" t="s">
+        <v>1021</v>
+      </c>
+      <c r="K770" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="771" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A771" s="32" t="s">
+        <v>998</v>
+      </c>
+      <c r="B771" s="32" t="s">
+        <v>421</v>
+      </c>
+      <c r="C771" s="32" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D771" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="E771" s="32">
+        <v>5.2</v>
+      </c>
+      <c r="F771" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="G771" s="32">
+        <v>18</v>
+      </c>
+      <c r="H771" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="I771" s="33"/>
+      <c r="J771" t="s">
+        <v>1022</v>
+      </c>
+      <c r="K771" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="772" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A772" s="32" t="s">
+        <v>998</v>
+      </c>
+      <c r="B772" s="32" t="s">
+        <v>421</v>
+      </c>
+      <c r="C772" s="32" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D772" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="E772" s="32">
+        <v>4.2</v>
+      </c>
+      <c r="F772" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="G772" s="32">
+        <v>24</v>
+      </c>
+      <c r="H772" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="I772" s="33"/>
+      <c r="J772" t="s">
+        <v>1023</v>
+      </c>
+      <c r="K772" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="773" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A773" s="32" t="s">
+        <v>998</v>
+      </c>
+      <c r="B773" s="32" t="s">
+        <v>421</v>
+      </c>
+      <c r="C773" s="32" t="s">
+        <v>999</v>
+      </c>
+      <c r="D773" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="E773" s="32">
+        <v>8.77</v>
+      </c>
+      <c r="F773" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="G773" s="32">
+        <v>25.88</v>
+      </c>
+      <c r="H773" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="I773" s="33"/>
+      <c r="J773" t="s">
+        <v>1000</v>
+      </c>
+      <c r="K773" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="774" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A774" s="32" t="s">
+        <v>998</v>
+      </c>
+      <c r="B774" s="32" t="s">
+        <v>420</v>
+      </c>
+      <c r="C774" s="32" t="s">
+        <v>430</v>
+      </c>
+      <c r="D774" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="E774" s="32">
+        <v>2</v>
+      </c>
+      <c r="F774" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="G774" s="32">
+        <v>10.35</v>
+      </c>
+      <c r="H774" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="J774" t="s">
         <v>1001</v>
       </c>
-      <c r="K768" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="769" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A769" t="s">
+      <c r="K774" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="775" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A775" s="32" t="s">
         <v>998</v>
       </c>
-      <c r="B769" t="s">
-        <v>421</v>
-      </c>
-      <c r="C769" t="s">
-        <v>999</v>
-      </c>
-      <c r="D769" t="s">
+      <c r="B775" s="32" t="s">
+        <v>420</v>
+      </c>
+      <c r="C775" s="32" t="s">
+        <v>239</v>
+      </c>
+      <c r="D775" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="E775" s="32">
+        <v>0.86</v>
+      </c>
+      <c r="F775" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="G775" s="32">
+        <v>52.68</v>
+      </c>
+      <c r="H775" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="J775" t="s">
+        <v>1024</v>
+      </c>
+      <c r="K775" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="776" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A776" s="32" t="s">
+        <v>998</v>
+      </c>
+      <c r="B776" s="32" t="s">
+        <v>420</v>
+      </c>
+      <c r="C776" s="32" t="s">
+        <v>516</v>
+      </c>
+      <c r="D776" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="E769">
-        <v>8.77</v>
-      </c>
-      <c r="F769" t="s">
-        <v>78</v>
-      </c>
-      <c r="G769">
-        <v>25.88</v>
-      </c>
-      <c r="H769" t="s">
+      <c r="E776" s="32">
+        <v>28.12</v>
+      </c>
+      <c r="F776" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="G776" s="32">
+        <v>61.5</v>
+      </c>
+      <c r="H776" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="J769" t="s">
+      <c r="J776" t="s">
         <v>1002</v>
       </c>
-      <c r="K769" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="770" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A770" t="s">
+      <c r="K776" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="777" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A777" s="32" t="s">
         <v>998</v>
       </c>
-      <c r="B770" t="s">
-        <v>421</v>
-      </c>
-      <c r="C770" t="s">
+      <c r="B777" s="32" t="s">
+        <v>420</v>
+      </c>
+      <c r="C777" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="D777" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="E777" s="32">
+        <v>12.5</v>
+      </c>
+      <c r="F777" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="G777" s="32">
+        <v>27.16</v>
+      </c>
+      <c r="H777" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="J777" t="s">
+        <v>1003</v>
+      </c>
+      <c r="K777" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="778" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A778" s="32" t="s">
+        <v>998</v>
+      </c>
+      <c r="B778" s="32" t="s">
+        <v>418</v>
+      </c>
+      <c r="C778" s="32" t="s">
+        <v>426</v>
+      </c>
+      <c r="D778" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="E778" s="32">
+        <v>1</v>
+      </c>
+      <c r="F778" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="G778" s="32">
+        <v>8</v>
+      </c>
+      <c r="H778" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="I778" s="33"/>
+      <c r="J778" t="s">
+        <v>1025</v>
+      </c>
+      <c r="K778" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="779" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A779" s="32" t="s">
+        <v>998</v>
+      </c>
+      <c r="B779" s="32" t="s">
+        <v>418</v>
+      </c>
+      <c r="C779" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="D779" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="E779" s="32">
+        <v>0</v>
+      </c>
+      <c r="F779" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="G779" s="32">
+        <v>19.48</v>
+      </c>
+      <c r="H779" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="I779" s="33"/>
+      <c r="J779" t="s">
+        <v>1026</v>
+      </c>
+      <c r="K779" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="780" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A780" s="32" t="s">
+        <v>998</v>
+      </c>
+      <c r="B780" s="32" t="s">
+        <v>418</v>
+      </c>
+      <c r="C780" s="32" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D780" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="E780" s="32">
+        <v>6.62</v>
+      </c>
+      <c r="F780" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="G780" s="32">
+        <v>21.62</v>
+      </c>
+      <c r="H780" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="I780" s="33"/>
+      <c r="J780" t="s">
+        <v>1027</v>
+      </c>
+      <c r="K780" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="781" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A781" s="32" t="s">
+        <v>998</v>
+      </c>
+      <c r="B781" s="32" t="s">
+        <v>418</v>
+      </c>
+      <c r="C781" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="D781" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="E781" s="32">
+        <v>3.44</v>
+      </c>
+      <c r="F781" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="G781" s="32">
+        <v>39.39</v>
+      </c>
+      <c r="H781" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="I781" s="33"/>
+      <c r="J781" t="s">
+        <v>1028</v>
+      </c>
+      <c r="K781" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="782" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A782" s="32" t="s">
+        <v>998</v>
+      </c>
+      <c r="B782" s="32" t="s">
+        <v>418</v>
+      </c>
+      <c r="C782" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D782" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="E782" s="32">
+        <v>7</v>
+      </c>
+      <c r="F782" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="G782" s="32">
+        <v>16.2</v>
+      </c>
+      <c r="H782" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="I782" s="33"/>
+      <c r="J782" t="s">
+        <v>1005</v>
+      </c>
+      <c r="K782" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="783" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A783" s="32" t="s">
+        <v>998</v>
+      </c>
+      <c r="B783" s="32" t="s">
+        <v>418</v>
+      </c>
+      <c r="C783" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="D783" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="E783" s="32">
+        <v>19.29</v>
+      </c>
+      <c r="F783" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="G783" s="32">
+        <v>42.3</v>
+      </c>
+      <c r="H783" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="I783" s="33"/>
+      <c r="J783" t="s">
+        <v>1006</v>
+      </c>
+      <c r="K783" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="784" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A784" s="32" t="s">
+        <v>998</v>
+      </c>
+      <c r="B784" s="32" t="s">
+        <v>422</v>
+      </c>
+      <c r="C784" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="D784" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="E784" s="32">
+        <v>0.91</v>
+      </c>
+      <c r="F784" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="G784" s="32">
+        <v>30.01</v>
+      </c>
+      <c r="H784" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="J784" t="s">
+        <v>1029</v>
+      </c>
+      <c r="K784" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="785" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A785" s="32" t="s">
+        <v>998</v>
+      </c>
+      <c r="B785" s="32" t="s">
+        <v>422</v>
+      </c>
+      <c r="C785" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="D785" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="E785" s="32">
+        <v>3.89</v>
+      </c>
+      <c r="F785" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="G785" s="32">
+        <v>38.409999999999997</v>
+      </c>
+      <c r="H785" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="J785" t="s">
+        <v>1030</v>
+      </c>
+      <c r="K785" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="786" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A786" s="32" t="s">
+        <v>998</v>
+      </c>
+      <c r="B786" s="32" t="s">
+        <v>422</v>
+      </c>
+      <c r="C786" s="32" t="s">
         <v>516</v>
       </c>
-      <c r="D770" t="s">
+      <c r="D786" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="E770">
-        <v>26.72</v>
-      </c>
-      <c r="F770" t="s">
-        <v>78</v>
-      </c>
-      <c r="G770">
-        <v>59.82</v>
-      </c>
-      <c r="H770" t="s">
+      <c r="E786" s="32">
+        <v>31.97</v>
+      </c>
+      <c r="F786" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="G786" s="32">
+        <v>58.18</v>
+      </c>
+      <c r="H786" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="J770" t="s">
-        <v>1003</v>
-      </c>
-      <c r="K770" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="771" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A771" t="s">
+      <c r="J786" t="s">
+        <v>1007</v>
+      </c>
+      <c r="K786" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="787" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A787" s="32" t="s">
         <v>998</v>
       </c>
-      <c r="B771" t="s">
-        <v>421</v>
-      </c>
-      <c r="C771" t="s">
-        <v>1000</v>
-      </c>
-      <c r="D771" t="s">
+      <c r="B787" s="32" t="s">
+        <v>422</v>
+      </c>
+      <c r="C787" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="D787" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="E771">
-        <v>0.47</v>
-      </c>
-      <c r="F771" t="s">
-        <v>78</v>
-      </c>
-      <c r="G771">
-        <v>0.82</v>
-      </c>
-      <c r="H771" t="s">
+      <c r="E787" s="32">
+        <v>3.56</v>
+      </c>
+      <c r="F787" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="G787" s="32">
+        <v>31.95</v>
+      </c>
+      <c r="H787" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="J771" t="s">
+      <c r="J787" t="s">
+        <v>1008</v>
+      </c>
+      <c r="K787" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="788" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A788" s="32" t="s">
+        <v>998</v>
+      </c>
+      <c r="B788" s="32" t="s">
+        <v>422</v>
+      </c>
+      <c r="C788" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="D788" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="E788" s="32">
+        <v>3.02</v>
+      </c>
+      <c r="F788" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="G788" s="32">
+        <v>35.81</v>
+      </c>
+      <c r="H788" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="J788" t="s">
+        <v>1009</v>
+      </c>
+      <c r="K788" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="789" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A789" s="32" t="s">
+        <v>998</v>
+      </c>
+      <c r="B789" s="32" t="s">
+        <v>425</v>
+      </c>
+      <c r="C789" s="32" t="s">
+        <v>689</v>
+      </c>
+      <c r="D789" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="E789" s="32">
+        <v>17.809999999999999</v>
+      </c>
+      <c r="F789" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="G789" s="32">
+        <v>44.9</v>
+      </c>
+      <c r="H789" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="I789" s="33"/>
+      <c r="J789" t="s">
+        <v>1031</v>
+      </c>
+      <c r="K789" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="790" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A790" s="32" t="s">
+        <v>998</v>
+      </c>
+      <c r="B790" s="32" t="s">
+        <v>425</v>
+      </c>
+      <c r="C790" s="32" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D790" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="E790" s="32">
+        <v>5.8</v>
+      </c>
+      <c r="F790" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="G790" s="32">
+        <v>27.78</v>
+      </c>
+      <c r="H790" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="I790" s="33"/>
+      <c r="J790" t="s">
+        <v>1032</v>
+      </c>
+      <c r="K790" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="791" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A791" s="32" t="s">
+        <v>998</v>
+      </c>
+      <c r="B791" s="32" t="s">
+        <v>425</v>
+      </c>
+      <c r="C791" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D791" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="E791" s="32">
+        <v>1.55</v>
+      </c>
+      <c r="F791" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="G791" s="32">
+        <v>10</v>
+      </c>
+      <c r="H791" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="I791" s="33"/>
+      <c r="J791" t="s">
+        <v>1010</v>
+      </c>
+      <c r="K791" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="792" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A792" s="32" t="s">
+        <v>998</v>
+      </c>
+      <c r="B792" s="32" t="s">
+        <v>425</v>
+      </c>
+      <c r="C792" s="32" t="s">
+        <v>683</v>
+      </c>
+      <c r="D792" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="E792" s="32">
+        <v>55.56</v>
+      </c>
+      <c r="F792" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="G792" s="32">
+        <v>82.61</v>
+      </c>
+      <c r="H792" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="I792" s="33"/>
+      <c r="J792" t="s">
+        <v>1033</v>
+      </c>
+      <c r="K792" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="793" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A793" s="32" t="s">
+        <v>998</v>
+      </c>
+      <c r="B793" s="32" t="s">
+        <v>425</v>
+      </c>
+      <c r="C793" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="D793" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="E793" s="32">
+        <v>36.99</v>
+      </c>
+      <c r="F793" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="G793" s="32">
+        <v>76.47</v>
+      </c>
+      <c r="H793" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="I793" s="33"/>
+      <c r="J793" t="s">
+        <v>1011</v>
+      </c>
+      <c r="K793" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="794" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A794" s="32" t="s">
+        <v>998</v>
+      </c>
+      <c r="B794" s="32" t="s">
+        <v>423</v>
+      </c>
+      <c r="C794" s="32" t="s">
+        <v>684</v>
+      </c>
+      <c r="D794" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="E794" s="32">
+        <v>21</v>
+      </c>
+      <c r="F794" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="G794" s="32">
+        <v>58.65</v>
+      </c>
+      <c r="H794" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="J794" t="s">
+        <v>1034</v>
+      </c>
+      <c r="K794" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="795" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A795" s="32" t="s">
+        <v>998</v>
+      </c>
+      <c r="B795" s="32" t="s">
+        <v>423</v>
+      </c>
+      <c r="C795" s="32" t="s">
+        <v>683</v>
+      </c>
+      <c r="D795" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="E795" s="32">
+        <v>52.22</v>
+      </c>
+      <c r="F795" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="G795" s="32">
+        <v>84.77</v>
+      </c>
+      <c r="H795" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="J795" t="s">
+        <v>1012</v>
+      </c>
+      <c r="K795" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="796" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A796" s="32" t="s">
+        <v>998</v>
+      </c>
+      <c r="B796" s="32" t="s">
+        <v>423</v>
+      </c>
+      <c r="C796" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="D796" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="E796" s="32">
+        <v>4</v>
+      </c>
+      <c r="F796" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="G796" s="32">
+        <v>12</v>
+      </c>
+      <c r="H796" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="J796" t="s">
         <v>1004</v>
       </c>
-      <c r="K771" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="772" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A772" t="s">
+      <c r="K796" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="797" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A797" s="32" t="s">
         <v>998</v>
       </c>
-      <c r="B772" t="s">
-        <v>420</v>
-      </c>
-      <c r="C772" t="s">
+      <c r="B797" s="32" t="s">
+        <v>423</v>
+      </c>
+      <c r="C797" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="D797" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="E797" s="32">
+        <v>17</v>
+      </c>
+      <c r="F797" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="G797" s="32">
+        <v>35</v>
+      </c>
+      <c r="H797" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="J797" t="s">
+        <v>1035</v>
+      </c>
+      <c r="K797" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="798" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A798" s="32" t="s">
+        <v>998</v>
+      </c>
+      <c r="B798" s="32" t="s">
+        <v>424</v>
+      </c>
+      <c r="C798" s="32" t="s">
         <v>684</v>
       </c>
-      <c r="D772" t="s">
+      <c r="D798" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="E772">
-        <v>10.71</v>
-      </c>
-      <c r="F772" t="s">
-        <v>78</v>
-      </c>
-      <c r="G772">
-        <v>42.07</v>
-      </c>
-      <c r="H772" t="s">
+      <c r="E798" s="32">
+        <v>27.18</v>
+      </c>
+      <c r="F798" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="G798" s="32">
+        <v>60</v>
+      </c>
+      <c r="H798" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="J772" t="s">
-        <v>1006</v>
-      </c>
-      <c r="K772" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="773" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A773" t="s">
+      <c r="I798" s="33"/>
+      <c r="J798" t="s">
+        <v>1036</v>
+      </c>
+      <c r="K798" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="799" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A799" s="32" t="s">
         <v>998</v>
       </c>
-      <c r="B773" t="s">
-        <v>420</v>
-      </c>
-      <c r="C773" t="s">
-        <v>430</v>
-      </c>
-      <c r="D773" t="s">
+      <c r="B799" s="32" t="s">
+        <v>424</v>
+      </c>
+      <c r="C799" s="32" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D799" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="E773">
+      <c r="E799" s="32">
+        <v>0.31</v>
+      </c>
+      <c r="F799" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="G799" s="32">
+        <v>35.380000000000003</v>
+      </c>
+      <c r="H799" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="I799" s="33"/>
+      <c r="J799" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K799" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="800" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A800" s="32" t="s">
+        <v>998</v>
+      </c>
+      <c r="B800" s="32" t="s">
+        <v>424</v>
+      </c>
+      <c r="C800" s="32" t="s">
+        <v>689</v>
+      </c>
+      <c r="D800" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="E800" s="32">
+        <v>18.18</v>
+      </c>
+      <c r="F800" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="G800" s="32">
+        <v>42.86</v>
+      </c>
+      <c r="H800" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="I800" s="33"/>
+      <c r="J800" t="s">
+        <v>1038</v>
+      </c>
+      <c r="K800" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="801" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A801" s="32" t="s">
+        <v>998</v>
+      </c>
+      <c r="B801" s="32" t="s">
+        <v>424</v>
+      </c>
+      <c r="C801" s="32" t="s">
+        <v>683</v>
+      </c>
+      <c r="D801" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="E801" s="32">
+        <v>50</v>
+      </c>
+      <c r="F801" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="G801" s="32">
+        <v>82.19</v>
+      </c>
+      <c r="H801" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="I801" s="33"/>
+      <c r="J801" t="s">
+        <v>1013</v>
+      </c>
+      <c r="K801" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="802" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A802" s="32" t="s">
+        <v>998</v>
+      </c>
+      <c r="B802" s="32" t="s">
+        <v>424</v>
+      </c>
+      <c r="C802" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="D802" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="E802" s="32">
         <v>2</v>
       </c>
-      <c r="F773" t="s">
-        <v>78</v>
-      </c>
-      <c r="G773">
-        <v>10.35</v>
-      </c>
-      <c r="H773" t="s">
+      <c r="F802" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="G802" s="32">
+        <v>12</v>
+      </c>
+      <c r="H802" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="J773" t="s">
-        <v>1007</v>
-      </c>
-      <c r="K773" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="774" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A774" t="s">
-        <v>998</v>
-      </c>
-      <c r="B774" t="s">
-        <v>420</v>
-      </c>
-      <c r="C774" t="s">
-        <v>516</v>
-      </c>
-      <c r="D774" t="s">
-        <v>14</v>
-      </c>
-      <c r="E774">
-        <v>28.12</v>
-      </c>
-      <c r="F774" t="s">
-        <v>78</v>
-      </c>
-      <c r="G774">
-        <v>61.5</v>
-      </c>
-      <c r="H774" t="s">
-        <v>80</v>
-      </c>
-      <c r="J774" t="s">
-        <v>1008</v>
-      </c>
-      <c r="K774" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="775" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A775" t="s">
-        <v>998</v>
-      </c>
-      <c r="B775" t="s">
-        <v>420</v>
-      </c>
-      <c r="C775" t="s">
-        <v>1005</v>
-      </c>
-      <c r="D775" t="s">
-        <v>14</v>
-      </c>
-      <c r="E775">
-        <v>37.840000000000003</v>
-      </c>
-      <c r="F775" t="s">
-        <v>78</v>
-      </c>
-      <c r="G775">
-        <v>98.19</v>
-      </c>
-      <c r="H775" t="s">
-        <v>80</v>
-      </c>
-      <c r="J775" t="s">
-        <v>1009</v>
-      </c>
-      <c r="K775" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="776" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A776" t="s">
-        <v>998</v>
-      </c>
-      <c r="B776" t="s">
-        <v>420</v>
-      </c>
-      <c r="C776" t="s">
-        <v>89</v>
-      </c>
-      <c r="D776" t="s">
-        <v>14</v>
-      </c>
-      <c r="E776">
-        <v>12.5</v>
-      </c>
-      <c r="F776" t="s">
-        <v>78</v>
-      </c>
-      <c r="G776">
-        <v>27.16</v>
-      </c>
-      <c r="H776" t="s">
-        <v>80</v>
-      </c>
-      <c r="J776" t="s">
-        <v>1010</v>
-      </c>
-      <c r="K776" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="777" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A777" t="s">
-        <v>998</v>
-      </c>
-      <c r="B777" t="s">
-        <v>418</v>
-      </c>
-      <c r="C777" t="s">
-        <v>683</v>
-      </c>
-      <c r="D777" t="s">
-        <v>14</v>
-      </c>
-      <c r="E777">
-        <v>65.19</v>
-      </c>
-      <c r="F777" t="s">
-        <v>78</v>
-      </c>
-      <c r="G777">
-        <v>89.61</v>
-      </c>
-      <c r="H777" t="s">
-        <v>80</v>
-      </c>
-      <c r="J777" t="s">
-        <v>1011</v>
-      </c>
-      <c r="K777" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="778" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A778" t="s">
-        <v>998</v>
-      </c>
-      <c r="B778" t="s">
-        <v>418</v>
-      </c>
-      <c r="C778" t="s">
-        <v>64</v>
-      </c>
-      <c r="D778" t="s">
-        <v>14</v>
-      </c>
-      <c r="E778">
-        <v>4</v>
-      </c>
-      <c r="F778" t="s">
-        <v>78</v>
-      </c>
-      <c r="G778">
-        <v>12</v>
-      </c>
-      <c r="H778" t="s">
-        <v>80</v>
-      </c>
-      <c r="J778" t="s">
-        <v>1012</v>
-      </c>
-      <c r="K778" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="779" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A779" t="s">
-        <v>998</v>
-      </c>
-      <c r="B779" t="s">
-        <v>418</v>
-      </c>
-      <c r="C779" t="s">
-        <v>16</v>
-      </c>
-      <c r="D779" t="s">
-        <v>14</v>
-      </c>
-      <c r="E779">
-        <v>7</v>
-      </c>
-      <c r="F779" t="s">
-        <v>78</v>
-      </c>
-      <c r="G779">
-        <v>16.2</v>
-      </c>
-      <c r="H779" t="s">
-        <v>80</v>
-      </c>
-      <c r="J779" t="s">
-        <v>1013</v>
-      </c>
-      <c r="K779" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="780" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A780" t="s">
-        <v>998</v>
-      </c>
-      <c r="B780" t="s">
-        <v>418</v>
-      </c>
-      <c r="C780" t="s">
-        <v>88</v>
-      </c>
-      <c r="D780" t="s">
-        <v>14</v>
-      </c>
-      <c r="E780">
-        <v>28.23</v>
-      </c>
-      <c r="F780" t="s">
-        <v>78</v>
-      </c>
-      <c r="G780">
-        <v>53.38</v>
-      </c>
-      <c r="H780" t="s">
-        <v>80</v>
-      </c>
-      <c r="J780" t="s">
+      <c r="I802" s="33"/>
+      <c r="J802" t="s">
         <v>1014</v>
       </c>
-      <c r="K780" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="781" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A781" t="s">
-        <v>998</v>
-      </c>
-      <c r="B781" t="s">
-        <v>418</v>
-      </c>
-      <c r="C781" t="s">
-        <v>238</v>
-      </c>
-      <c r="D781" t="s">
-        <v>14</v>
-      </c>
-      <c r="E781">
-        <v>19.29</v>
-      </c>
-      <c r="F781" t="s">
-        <v>78</v>
-      </c>
-      <c r="G781">
-        <v>42.3</v>
-      </c>
-      <c r="H781" t="s">
-        <v>80</v>
-      </c>
-      <c r="J781" t="s">
-        <v>1015</v>
-      </c>
-      <c r="K781" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="782" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A782" t="s">
-        <v>998</v>
-      </c>
-      <c r="B782" t="s">
-        <v>422</v>
-      </c>
-      <c r="C782" t="s">
-        <v>135</v>
-      </c>
-      <c r="D782" t="s">
-        <v>28</v>
-      </c>
-      <c r="E782">
-        <v>3.26</v>
-      </c>
-      <c r="F782" t="s">
-        <v>78</v>
-      </c>
-      <c r="G782">
-        <v>6.16</v>
-      </c>
-      <c r="H782" t="s">
-        <v>80</v>
-      </c>
-      <c r="J782" t="s">
-        <v>1016</v>
-      </c>
-      <c r="K782" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="783" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A783" t="s">
-        <v>998</v>
-      </c>
-      <c r="B783" t="s">
-        <v>422</v>
-      </c>
-      <c r="C783" t="s">
-        <v>516</v>
-      </c>
-      <c r="D783" t="s">
-        <v>14</v>
-      </c>
-      <c r="E783">
-        <v>31.97</v>
-      </c>
-      <c r="F783" t="s">
-        <v>78</v>
-      </c>
-      <c r="G783">
-        <v>58.18</v>
-      </c>
-      <c r="H783" t="s">
-        <v>80</v>
-      </c>
-      <c r="J783" t="s">
-        <v>1017</v>
-      </c>
-      <c r="K783" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="784" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A784" t="s">
-        <v>998</v>
-      </c>
-      <c r="B784" t="s">
-        <v>422</v>
-      </c>
-      <c r="C784" t="s">
-        <v>133</v>
-      </c>
-      <c r="D784" t="s">
-        <v>14</v>
-      </c>
-      <c r="E784">
-        <v>3.56</v>
-      </c>
-      <c r="F784" t="s">
-        <v>78</v>
-      </c>
-      <c r="G784">
-        <v>31.95</v>
-      </c>
-      <c r="H784" t="s">
-        <v>80</v>
-      </c>
-      <c r="J784" t="s">
-        <v>1018</v>
-      </c>
-      <c r="K784" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="785" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A785" t="s">
-        <v>998</v>
-      </c>
-      <c r="B785" t="s">
-        <v>422</v>
-      </c>
-      <c r="C785" t="s">
-        <v>683</v>
-      </c>
-      <c r="D785" t="s">
-        <v>14</v>
-      </c>
-      <c r="E785">
-        <v>66.67</v>
-      </c>
-      <c r="F785" t="s">
-        <v>78</v>
-      </c>
-      <c r="G785">
-        <v>87.87</v>
-      </c>
-      <c r="H785" t="s">
-        <v>80</v>
-      </c>
-      <c r="J785" t="s">
-        <v>1019</v>
-      </c>
-      <c r="K785" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="786" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A786" t="s">
-        <v>998</v>
-      </c>
-      <c r="B786" t="s">
-        <v>422</v>
-      </c>
-      <c r="C786" t="s">
-        <v>87</v>
-      </c>
-      <c r="D786" t="s">
-        <v>14</v>
-      </c>
-      <c r="E786">
-        <v>3.02</v>
-      </c>
-      <c r="F786" t="s">
-        <v>78</v>
-      </c>
-      <c r="G786">
-        <v>35.81</v>
-      </c>
-      <c r="H786" t="s">
-        <v>80</v>
-      </c>
-      <c r="J786" t="s">
-        <v>1020</v>
-      </c>
-      <c r="K786" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="787" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A787" t="s">
-        <v>998</v>
-      </c>
-      <c r="B787" t="s">
-        <v>425</v>
-      </c>
-      <c r="C787" t="s">
-        <v>16</v>
-      </c>
-      <c r="D787" t="s">
-        <v>14</v>
-      </c>
-      <c r="E787">
-        <v>1.55</v>
-      </c>
-      <c r="F787" t="s">
-        <v>78</v>
-      </c>
-      <c r="G787">
-        <v>10</v>
-      </c>
-      <c r="H787" t="s">
-        <v>80</v>
-      </c>
-      <c r="J787" t="s">
-        <v>1022</v>
-      </c>
-      <c r="K787" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="788" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A788" t="s">
-        <v>998</v>
-      </c>
-      <c r="B788" t="s">
-        <v>425</v>
-      </c>
-      <c r="C788" t="s">
-        <v>159</v>
-      </c>
-      <c r="D788" t="s">
-        <v>14</v>
-      </c>
-      <c r="E788">
-        <v>36.99</v>
-      </c>
-      <c r="F788" t="s">
-        <v>78</v>
-      </c>
-      <c r="G788">
-        <v>76.47</v>
-      </c>
-      <c r="H788" t="s">
-        <v>80</v>
-      </c>
-      <c r="J788" t="s">
-        <v>1023</v>
-      </c>
-      <c r="K788" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="789" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A789" t="s">
-        <v>998</v>
-      </c>
-      <c r="B789" t="s">
-        <v>425</v>
-      </c>
-      <c r="C789" t="s">
-        <v>90</v>
-      </c>
-      <c r="D789" t="s">
-        <v>14</v>
-      </c>
-      <c r="E789">
-        <v>3</v>
-      </c>
-      <c r="F789" t="s">
-        <v>78</v>
-      </c>
-      <c r="G789">
-        <v>11</v>
-      </c>
-      <c r="H789" t="s">
-        <v>80</v>
-      </c>
-      <c r="J789" t="s">
-        <v>1024</v>
-      </c>
-      <c r="K789" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="790" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A790" t="s">
-        <v>998</v>
-      </c>
-      <c r="B790" t="s">
-        <v>425</v>
-      </c>
-      <c r="C790" t="s">
-        <v>1021</v>
-      </c>
-      <c r="D790" t="s">
-        <v>14</v>
-      </c>
-      <c r="E790">
-        <v>1.55</v>
-      </c>
-      <c r="F790" t="s">
-        <v>78</v>
-      </c>
-      <c r="G790">
-        <v>6.45</v>
-      </c>
-      <c r="H790" t="s">
-        <v>80</v>
-      </c>
-      <c r="J790" t="s">
-        <v>1025</v>
-      </c>
-      <c r="K790" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="791" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A791" t="s">
-        <v>998</v>
-      </c>
-      <c r="B791" t="s">
-        <v>423</v>
-      </c>
-      <c r="C791" t="s">
-        <v>135</v>
-      </c>
-      <c r="D791" t="s">
-        <v>28</v>
-      </c>
-      <c r="E791">
-        <v>3.93</v>
-      </c>
-      <c r="F791" t="s">
-        <v>78</v>
-      </c>
-      <c r="G791">
-        <v>6.74</v>
-      </c>
-      <c r="H791" t="s">
-        <v>80</v>
-      </c>
-      <c r="J791" t="s">
-        <v>1027</v>
-      </c>
-      <c r="K791" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="792" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A792" t="s">
-        <v>998</v>
-      </c>
-      <c r="B792" t="s">
-        <v>423</v>
-      </c>
-      <c r="C792" t="s">
-        <v>683</v>
-      </c>
-      <c r="D792" t="s">
-        <v>14</v>
-      </c>
-      <c r="E792">
-        <v>52.22</v>
-      </c>
-      <c r="F792" t="s">
-        <v>78</v>
-      </c>
-      <c r="G792">
-        <v>84.77</v>
-      </c>
-      <c r="H792" t="s">
-        <v>80</v>
-      </c>
-      <c r="J792" t="s">
-        <v>1028</v>
-      </c>
-      <c r="K792" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="793" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A793" t="s">
-        <v>998</v>
-      </c>
-      <c r="B793" t="s">
-        <v>423</v>
-      </c>
-      <c r="C793" t="s">
-        <v>90</v>
-      </c>
-      <c r="D793" t="s">
-        <v>14</v>
-      </c>
-      <c r="E793">
-        <v>4</v>
-      </c>
-      <c r="F793" t="s">
-        <v>78</v>
-      </c>
-      <c r="G793">
-        <v>12</v>
-      </c>
-      <c r="H793" t="s">
-        <v>80</v>
-      </c>
-      <c r="J793" t="s">
-        <v>1012</v>
-      </c>
-      <c r="K793" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="794" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A794" t="s">
-        <v>998</v>
-      </c>
-      <c r="B794" t="s">
-        <v>423</v>
-      </c>
-      <c r="C794" t="s">
-        <v>18</v>
-      </c>
-      <c r="D794" t="s">
-        <v>14</v>
-      </c>
-      <c r="E794">
-        <v>0.35</v>
-      </c>
-      <c r="F794" t="s">
-        <v>78</v>
-      </c>
-      <c r="G794">
-        <v>5</v>
-      </c>
-      <c r="H794" t="s">
-        <v>80</v>
-      </c>
-      <c r="J794" t="s">
-        <v>1029</v>
-      </c>
-      <c r="K794" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="795" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A795" t="s">
-        <v>998</v>
-      </c>
-      <c r="B795" t="s">
-        <v>423</v>
-      </c>
-      <c r="C795" t="s">
-        <v>1026</v>
-      </c>
-      <c r="D795" t="s">
-        <v>14</v>
-      </c>
-      <c r="E795">
-        <v>1</v>
-      </c>
-      <c r="F795" t="s">
-        <v>78</v>
-      </c>
-      <c r="G795">
-        <v>6</v>
-      </c>
-      <c r="H795" t="s">
-        <v>80</v>
-      </c>
-      <c r="J795" t="s">
-        <v>1030</v>
-      </c>
-      <c r="K795" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="796" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A796" t="s">
-        <v>998</v>
-      </c>
-      <c r="B796" t="s">
-        <v>424</v>
-      </c>
-      <c r="C796" t="s">
-        <v>135</v>
-      </c>
-      <c r="D796" t="s">
-        <v>28</v>
-      </c>
-      <c r="E796">
-        <v>4.43</v>
-      </c>
-      <c r="F796" t="s">
-        <v>78</v>
-      </c>
-      <c r="G796">
-        <v>7.08</v>
-      </c>
-      <c r="H796" t="s">
-        <v>80</v>
-      </c>
-      <c r="J796" t="s">
-        <v>1032</v>
-      </c>
-      <c r="K796" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="797" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A797" t="s">
-        <v>998</v>
-      </c>
-      <c r="B797" t="s">
-        <v>424</v>
-      </c>
-      <c r="C797" t="s">
-        <v>683</v>
-      </c>
-      <c r="D797" t="s">
-        <v>14</v>
-      </c>
-      <c r="E797">
-        <v>50</v>
-      </c>
-      <c r="F797" t="s">
-        <v>78</v>
-      </c>
-      <c r="G797">
-        <v>82.19</v>
-      </c>
-      <c r="H797" t="s">
-        <v>80</v>
-      </c>
-      <c r="J797" t="s">
-        <v>1033</v>
-      </c>
-      <c r="K797" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="798" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A798" t="s">
-        <v>998</v>
-      </c>
-      <c r="B798" t="s">
-        <v>424</v>
-      </c>
-      <c r="C798" t="s">
-        <v>1031</v>
-      </c>
-      <c r="D798" t="s">
-        <v>14</v>
-      </c>
-      <c r="E798">
-        <v>1.9</v>
-      </c>
-      <c r="F798" t="s">
-        <v>78</v>
-      </c>
-      <c r="G798">
-        <v>14.1</v>
-      </c>
-      <c r="H798" t="s">
-        <v>80</v>
-      </c>
-      <c r="J798" t="s">
-        <v>1034</v>
-      </c>
-      <c r="K798" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="799" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A799" t="s">
-        <v>998</v>
-      </c>
-      <c r="B799" t="s">
-        <v>424</v>
-      </c>
-      <c r="C799" t="s">
-        <v>90</v>
-      </c>
-      <c r="D799" t="s">
-        <v>14</v>
-      </c>
-      <c r="E799">
-        <v>2</v>
-      </c>
-      <c r="F799" t="s">
-        <v>78</v>
-      </c>
-      <c r="G799">
-        <v>12</v>
-      </c>
-      <c r="H799" t="s">
-        <v>80</v>
-      </c>
-      <c r="J799" t="s">
-        <v>1035</v>
-      </c>
-      <c r="K799" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="800" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A800" t="s">
-        <v>998</v>
-      </c>
-      <c r="B800" t="s">
-        <v>424</v>
-      </c>
-      <c r="C800" t="s">
-        <v>179</v>
-      </c>
-      <c r="D800" t="s">
-        <v>14</v>
-      </c>
-      <c r="E800">
-        <v>1</v>
-      </c>
-      <c r="F800" t="s">
-        <v>78</v>
-      </c>
-      <c r="G800">
-        <v>7</v>
-      </c>
-      <c r="H800" t="s">
-        <v>80</v>
-      </c>
-      <c r="J800" t="s">
-        <v>1036</v>
-      </c>
-      <c r="K800" t="s">
+      <c r="K802" t="s">
         <v>446</v>
       </c>
     </row>
@@ -40103,25 +40203,25 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D560">
-    <cfRule type="cellIs" dxfId="119" priority="108" operator="equal">
-      <formula>"NA"</formula>
+    <cfRule type="cellIs" dxfId="119" priority="110" operator="equal">
+      <formula>"Increase"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="118" priority="109" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="110" operator="equal">
-      <formula>"Increase"</formula>
+    <cfRule type="cellIs" dxfId="117" priority="108" operator="equal">
+      <formula>"NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D562:D563 D568:D569 D571:D575 D577 D579:D581 D583 D586 D588:D590 D607:D608 D613 D627:D628 D655:D656 D659 D663:D665 D667">
-    <cfRule type="cellIs" dxfId="116" priority="82" operator="equal">
-      <formula>"NA"</formula>
+    <cfRule type="cellIs" dxfId="116" priority="84" operator="equal">
+      <formula>"Increase"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="115" priority="83" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="84" operator="equal">
-      <formula>"Increase"</formula>
+    <cfRule type="cellIs" dxfId="114" priority="82" operator="equal">
+      <formula>"NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D596:D598 D604">
@@ -40147,14 +40247,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D637:D638">
-    <cfRule type="cellIs" dxfId="107" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="66" operator="equal">
+      <formula>"Increase"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="106" priority="64" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="65" operator="equal">
       <formula>""</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="66" operator="equal">
-      <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D647:D648">
@@ -40183,22 +40283,22 @@
     <cfRule type="cellIs" dxfId="98" priority="16" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="18" operator="equal">
+      <formula>"Increase"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="96" priority="17" operator="equal">
       <formula>""</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="18" operator="equal">
-      <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D686">
-    <cfRule type="cellIs" dxfId="95" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="21" operator="equal">
+      <formula>"Increase"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="94" priority="19" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="20" operator="equal">
       <formula>""</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="21" operator="equal">
-      <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D691:D694">
@@ -40235,17 +40335,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D714:D716">
-    <cfRule type="cellIs" dxfId="83" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="5" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="82" priority="6" operator="equal">
+      <formula>"Increase"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="81" priority="4" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="5" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="6" operator="equal">
-      <formula>"Increase"</formula>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D720:D724 D735:D800">
+  <conditionalFormatting sqref="D720:D724 D735:D802">
     <cfRule type="cellIs" dxfId="80" priority="31" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
@@ -40257,25 +40357,25 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D726:D727">
-    <cfRule type="cellIs" dxfId="77" priority="47" operator="equal">
-      <formula>"NA"</formula>
+    <cfRule type="cellIs" dxfId="77" priority="49" operator="equal">
+      <formula>"Increase"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="76" priority="48" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="49" operator="equal">
-      <formula>"Increase"</formula>
+    <cfRule type="cellIs" dxfId="75" priority="47" operator="equal">
+      <formula>"NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D730:D731">
-    <cfRule type="cellIs" dxfId="74" priority="41" operator="equal">
-      <formula>"NA"</formula>
+    <cfRule type="cellIs" dxfId="74" priority="43" operator="equal">
+      <formula>"Increase"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="73" priority="42" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="43" operator="equal">
-      <formula>"Increase"</formula>
+    <cfRule type="cellIs" dxfId="72" priority="41" operator="equal">
+      <formula>"NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D733">
@@ -40298,11 +40398,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E204:E205 E208 E216 E218:E219 E228:E231">
-    <cfRule type="cellIs" dxfId="66" priority="428" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="429" operator="equal">
+      <formula>"Increase"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="65" priority="428" operator="equal">
       <formula>""</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="429" operator="equal">
-      <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E401 E413 E425 E437:F437 E449:F449">
@@ -40330,11 +40430,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E427">
-    <cfRule type="cellIs" dxfId="58" priority="213" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="214" operator="equal">
+      <formula>"Increase"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="57" priority="213" operator="equal">
       <formula>""</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="214" operator="equal">
-      <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E430">
@@ -40354,27 +40454,27 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E269:F269 F270">
-    <cfRule type="cellIs" dxfId="52" priority="393" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="394" operator="equal">
+      <formula>"Increase"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="51" priority="393" operator="equal">
       <formula>""</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="394" operator="equal">
-      <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E403:F403">
-    <cfRule type="cellIs" dxfId="50" priority="179" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="180" operator="equal">
+      <formula>"Increase"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="179" operator="equal">
       <formula>""</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="180" operator="equal">
-      <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E461:F463">
-    <cfRule type="cellIs" dxfId="48" priority="211" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="212" operator="equal">
+      <formula>"Increase"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="47" priority="211" operator="equal">
       <formula>""</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="212" operator="equal">
-      <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E468:F469">
@@ -40386,11 +40486,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F191 E192:F192">
-    <cfRule type="cellIs" dxfId="44" priority="506" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="507" operator="equal">
+      <formula>"Increase"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="43" priority="506" operator="equal">
       <formula>""</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="507" operator="equal">
-      <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F193:F214">
@@ -40588,11 +40688,11 @@
   </sheetPr>
   <dimension ref="A1:Z110"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G92" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="6" ySplit="1" topLeftCell="G89" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomRight" activeCell="A104" sqref="A104:XFD110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47043,8 +47143,8 @@
       <c r="C104" t="s">
         <v>100</v>
       </c>
-      <c r="D104">
-        <v>5</v>
+      <c r="D104" s="32">
+        <v>6</v>
       </c>
       <c r="E104" t="s">
         <v>106</v>
@@ -47105,8 +47205,8 @@
       <c r="C105" t="s">
         <v>100</v>
       </c>
-      <c r="D105">
-        <v>5</v>
+      <c r="D105" s="32">
+        <v>4</v>
       </c>
       <c r="E105" t="s">
         <v>106</v>
@@ -47167,8 +47267,8 @@
       <c r="C106" t="s">
         <v>100</v>
       </c>
-      <c r="D106">
-        <v>4</v>
+      <c r="D106" s="32">
+        <v>6</v>
       </c>
       <c r="E106" t="s">
         <v>106</v>
@@ -47229,7 +47329,7 @@
       <c r="C107" t="s">
         <v>100</v>
       </c>
-      <c r="D107">
+      <c r="D107" s="32">
         <v>5</v>
       </c>
       <c r="E107" t="s">
@@ -47291,8 +47391,8 @@
       <c r="C108" t="s">
         <v>100</v>
       </c>
-      <c r="D108">
-        <v>5</v>
+      <c r="D108" s="32">
+        <v>4</v>
       </c>
       <c r="E108" t="s">
         <v>106</v>
@@ -47353,7 +47453,7 @@
       <c r="C109" t="s">
         <v>100</v>
       </c>
-      <c r="D109">
+      <c r="D109" s="32">
         <v>5</v>
       </c>
       <c r="E109" t="s">
@@ -47415,8 +47515,8 @@
       <c r="C110" t="s">
         <v>100</v>
       </c>
-      <c r="D110">
-        <v>4</v>
+      <c r="D110" s="32">
+        <v>5</v>
       </c>
       <c r="E110" t="s">
         <v>106</v>
@@ -50337,15 +50437,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100557C7523FAC84E43A0DA62C173857381" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e4b9ddb1302998b61081aed2913076a6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="9bb5d252-d316-43f0-83d0-ec4a335d3ce7" xmlns:ns4="c0f75fa0-0a50-44a1-84b6-f6a4c66e6868" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3079d22dc9190cbddbf9f4c007b8016d" ns3:_="" ns4:_="">
     <xsd:import namespace="9bb5d252-d316-43f0-83d0-ec4a335d3ce7"/>
@@ -50568,6 +50659,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFD8027B-57D9-4B92-B1B3-871595BA197C}">
   <ds:schemaRefs>
@@ -50586,14 +50686,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{499CACD6-B6F0-4CF9-927E-84E37D5EF230}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19304C29-C31A-47A1-B855-8D09E823E92C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -50610,4 +50702,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{499CACD6-B6F0-4CF9-927E-84E37D5EF230}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/inst/extdata/MetricScoring.xlsx
+++ b/inst/extdata/MetricScoring.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tetratechinc-my.sharepoint.com/personal/ben_block_tetratech_com/Documents/GitHub/BioMonTools_BenB/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="380" documentId="6_{E1038586-8D02-4FF7-859A-8FC7A176EA6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{525986CC-A4E5-41E1-955D-10ACAC0DC303}"/>
+  <xr:revisionPtr revIDLastSave="390" documentId="6_{E1038586-8D02-4FF7-859A-8FC7A176EA6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4BBE879A-1912-4C4D-B628-D05FDEF0E72C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NOTES" sheetId="1" r:id="rId1"/>
@@ -1671,7 +1671,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9953" uniqueCount="1039">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9958" uniqueCount="1044">
   <si>
     <t>Erik.Leppo@tetratech.com</t>
   </si>
@@ -4788,6 +4788,21 @@
   </si>
   <si>
     <t>100 * (42.86 - metric) / (42.86 - 18.18)</t>
+  </si>
+  <si>
+    <t>66.54</t>
+  </si>
+  <si>
+    <t>32.98</t>
+  </si>
+  <si>
+    <t>38.41</t>
+  </si>
+  <si>
+    <t>35.38</t>
+  </si>
+  <si>
+    <t>17.81</t>
   </si>
 </sst>
 </file>
@@ -5066,7 +5081,7 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3"/>
@@ -5111,7 +5126,6 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="6" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="8">
@@ -7515,12 +7529,12 @@
   </sheetPr>
   <dimension ref="A1:AP802"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D781" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D783" activePane="bottomRight" state="frozen"/>
       <selection activeCell="Q1" sqref="Q1:V1"/>
       <selection pane="topRight" activeCell="Q1" sqref="Q1:V1"/>
       <selection pane="bottomLeft" activeCell="Q1" sqref="Q1:V1"/>
-      <selection pane="bottomRight" activeCell="A789" sqref="A789"/>
+      <selection pane="bottomRight" activeCell="E790" sqref="E790"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -39053,31 +39067,31 @@
       </c>
     </row>
     <row r="768" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A768" s="32" t="s">
+      <c r="A768" t="s">
         <v>998</v>
       </c>
-      <c r="B768" s="32" t="s">
+      <c r="B768" t="s">
         <v>421</v>
       </c>
-      <c r="C768" s="32" t="s">
+      <c r="C768" t="s">
         <v>239</v>
       </c>
-      <c r="D768" s="32" t="s">
+      <c r="D768" t="s">
         <v>28</v>
       </c>
-      <c r="E768" s="32">
+      <c r="E768">
         <v>1.23</v>
       </c>
-      <c r="F768" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="G768" s="32">
+      <c r="F768" t="s">
+        <v>78</v>
+      </c>
+      <c r="G768">
         <v>56.3</v>
       </c>
-      <c r="H768" s="32" t="s">
+      <c r="H768" t="s">
         <v>80</v>
       </c>
-      <c r="I768" s="33"/>
+      <c r="I768" s="32"/>
       <c r="J768" t="s">
         <v>1019</v>
       </c>
@@ -39086,31 +39100,31 @@
       </c>
     </row>
     <row r="769" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A769" s="32" t="s">
+      <c r="A769" t="s">
         <v>998</v>
       </c>
-      <c r="B769" s="32" t="s">
+      <c r="B769" t="s">
         <v>421</v>
       </c>
-      <c r="C769" s="32" t="s">
+      <c r="C769" t="s">
         <v>400</v>
       </c>
-      <c r="D769" s="32" t="s">
+      <c r="D769" t="s">
         <v>28</v>
       </c>
-      <c r="E769" s="32">
+      <c r="E769">
         <v>1.93</v>
       </c>
-      <c r="F769" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="G769" s="32">
-        <v>66.540000000000006</v>
-      </c>
-      <c r="H769" s="32" t="s">
+      <c r="F769" t="s">
+        <v>78</v>
+      </c>
+      <c r="G769" s="19" t="s">
+        <v>1039</v>
+      </c>
+      <c r="H769" t="s">
         <v>80</v>
       </c>
-      <c r="I769" s="33"/>
+      <c r="I769" s="32"/>
       <c r="J769" t="s">
         <v>1020</v>
       </c>
@@ -39119,31 +39133,31 @@
       </c>
     </row>
     <row r="770" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A770" s="32" t="s">
+      <c r="A770" t="s">
         <v>998</v>
       </c>
-      <c r="B770" s="32" t="s">
+      <c r="B770" t="s">
         <v>421</v>
       </c>
-      <c r="C770" s="32" t="s">
+      <c r="C770" t="s">
         <v>186</v>
       </c>
-      <c r="D770" s="32" t="s">
+      <c r="D770" t="s">
         <v>28</v>
       </c>
-      <c r="E770" s="32">
+      <c r="E770">
         <v>9.18</v>
       </c>
-      <c r="F770" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="G770" s="32">
-        <v>32.979999999999997</v>
-      </c>
-      <c r="H770" s="32" t="s">
+      <c r="F770" t="s">
+        <v>78</v>
+      </c>
+      <c r="G770" s="19" t="s">
+        <v>1040</v>
+      </c>
+      <c r="H770" t="s">
         <v>80</v>
       </c>
-      <c r="I770" s="33"/>
+      <c r="I770" s="32"/>
       <c r="J770" t="s">
         <v>1021</v>
       </c>
@@ -39152,31 +39166,31 @@
       </c>
     </row>
     <row r="771" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A771" s="32" t="s">
+      <c r="A771" t="s">
         <v>998</v>
       </c>
-      <c r="B771" s="32" t="s">
+      <c r="B771" t="s">
         <v>421</v>
       </c>
-      <c r="C771" s="32" t="s">
+      <c r="C771" t="s">
         <v>1015</v>
       </c>
-      <c r="D771" s="32" t="s">
+      <c r="D771" t="s">
         <v>14</v>
       </c>
-      <c r="E771" s="32">
+      <c r="E771">
         <v>5.2</v>
       </c>
-      <c r="F771" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="G771" s="32">
+      <c r="F771" t="s">
+        <v>78</v>
+      </c>
+      <c r="G771">
         <v>18</v>
       </c>
-      <c r="H771" s="32" t="s">
+      <c r="H771" t="s">
         <v>80</v>
       </c>
-      <c r="I771" s="33"/>
+      <c r="I771" s="32"/>
       <c r="J771" t="s">
         <v>1022</v>
       </c>
@@ -39185,31 +39199,31 @@
       </c>
     </row>
     <row r="772" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A772" s="32" t="s">
+      <c r="A772" t="s">
         <v>998</v>
       </c>
-      <c r="B772" s="32" t="s">
+      <c r="B772" t="s">
         <v>421</v>
       </c>
-      <c r="C772" s="32" t="s">
+      <c r="C772" t="s">
         <v>1016</v>
       </c>
-      <c r="D772" s="32" t="s">
+      <c r="D772" t="s">
         <v>14</v>
       </c>
-      <c r="E772" s="32">
+      <c r="E772">
         <v>4.2</v>
       </c>
-      <c r="F772" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="G772" s="32">
+      <c r="F772" t="s">
+        <v>78</v>
+      </c>
+      <c r="G772">
         <v>24</v>
       </c>
-      <c r="H772" s="32" t="s">
+      <c r="H772" t="s">
         <v>80</v>
       </c>
-      <c r="I772" s="33"/>
+      <c r="I772" s="32"/>
       <c r="J772" t="s">
         <v>1023</v>
       </c>
@@ -39218,31 +39232,31 @@
       </c>
     </row>
     <row r="773" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A773" s="32" t="s">
+      <c r="A773" t="s">
         <v>998</v>
       </c>
-      <c r="B773" s="32" t="s">
+      <c r="B773" t="s">
         <v>421</v>
       </c>
-      <c r="C773" s="32" t="s">
+      <c r="C773" t="s">
         <v>999</v>
       </c>
-      <c r="D773" s="32" t="s">
+      <c r="D773" t="s">
         <v>14</v>
       </c>
-      <c r="E773" s="32">
+      <c r="E773">
         <v>8.77</v>
       </c>
-      <c r="F773" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="G773" s="32">
+      <c r="F773" t="s">
+        <v>78</v>
+      </c>
+      <c r="G773">
         <v>25.88</v>
       </c>
-      <c r="H773" s="32" t="s">
+      <c r="H773" t="s">
         <v>80</v>
       </c>
-      <c r="I773" s="33"/>
+      <c r="I773" s="32"/>
       <c r="J773" t="s">
         <v>1000</v>
       </c>
@@ -39251,28 +39265,28 @@
       </c>
     </row>
     <row r="774" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A774" s="32" t="s">
+      <c r="A774" t="s">
         <v>998</v>
       </c>
-      <c r="B774" s="32" t="s">
+      <c r="B774" t="s">
         <v>420</v>
       </c>
-      <c r="C774" s="32" t="s">
+      <c r="C774" t="s">
         <v>430</v>
       </c>
-      <c r="D774" s="32" t="s">
+      <c r="D774" t="s">
         <v>28</v>
       </c>
-      <c r="E774" s="32">
+      <c r="E774">
         <v>2</v>
       </c>
-      <c r="F774" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="G774" s="32">
+      <c r="F774" t="s">
+        <v>78</v>
+      </c>
+      <c r="G774">
         <v>10.35</v>
       </c>
-      <c r="H774" s="32" t="s">
+      <c r="H774" t="s">
         <v>80</v>
       </c>
       <c r="J774" t="s">
@@ -39283,28 +39297,28 @@
       </c>
     </row>
     <row r="775" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A775" s="32" t="s">
+      <c r="A775" t="s">
         <v>998</v>
       </c>
-      <c r="B775" s="32" t="s">
+      <c r="B775" t="s">
         <v>420</v>
       </c>
-      <c r="C775" s="32" t="s">
+      <c r="C775" t="s">
         <v>239</v>
       </c>
-      <c r="D775" s="32" t="s">
+      <c r="D775" t="s">
         <v>28</v>
       </c>
-      <c r="E775" s="32">
+      <c r="E775">
         <v>0.86</v>
       </c>
-      <c r="F775" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="G775" s="32">
+      <c r="F775" t="s">
+        <v>78</v>
+      </c>
+      <c r="G775">
         <v>52.68</v>
       </c>
-      <c r="H775" s="32" t="s">
+      <c r="H775" t="s">
         <v>80</v>
       </c>
       <c r="J775" t="s">
@@ -39315,28 +39329,28 @@
       </c>
     </row>
     <row r="776" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A776" s="32" t="s">
+      <c r="A776" t="s">
         <v>998</v>
       </c>
-      <c r="B776" s="32" t="s">
+      <c r="B776" t="s">
         <v>420</v>
       </c>
-      <c r="C776" s="32" t="s">
+      <c r="C776" t="s">
         <v>516</v>
       </c>
-      <c r="D776" s="32" t="s">
+      <c r="D776" t="s">
         <v>14</v>
       </c>
-      <c r="E776" s="32">
+      <c r="E776">
         <v>28.12</v>
       </c>
-      <c r="F776" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="G776" s="32">
+      <c r="F776" t="s">
+        <v>78</v>
+      </c>
+      <c r="G776">
         <v>61.5</v>
       </c>
-      <c r="H776" s="32" t="s">
+      <c r="H776" t="s">
         <v>80</v>
       </c>
       <c r="J776" t="s">
@@ -39347,28 +39361,28 @@
       </c>
     </row>
     <row r="777" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A777" s="32" t="s">
+      <c r="A777" t="s">
         <v>998</v>
       </c>
-      <c r="B777" s="32" t="s">
+      <c r="B777" t="s">
         <v>420</v>
       </c>
-      <c r="C777" s="32" t="s">
+      <c r="C777" t="s">
         <v>89</v>
       </c>
-      <c r="D777" s="32" t="s">
+      <c r="D777" t="s">
         <v>14</v>
       </c>
-      <c r="E777" s="32">
+      <c r="E777">
         <v>12.5</v>
       </c>
-      <c r="F777" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="G777" s="32">
+      <c r="F777" t="s">
+        <v>78</v>
+      </c>
+      <c r="G777">
         <v>27.16</v>
       </c>
-      <c r="H777" s="32" t="s">
+      <c r="H777" t="s">
         <v>80</v>
       </c>
       <c r="J777" t="s">
@@ -39379,31 +39393,31 @@
       </c>
     </row>
     <row r="778" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A778" s="32" t="s">
+      <c r="A778" t="s">
         <v>998</v>
       </c>
-      <c r="B778" s="32" t="s">
+      <c r="B778" t="s">
         <v>418</v>
       </c>
-      <c r="C778" s="32" t="s">
+      <c r="C778" t="s">
         <v>426</v>
       </c>
-      <c r="D778" s="32" t="s">
+      <c r="D778" t="s">
         <v>28</v>
       </c>
-      <c r="E778" s="32">
+      <c r="E778">
         <v>1</v>
       </c>
-      <c r="F778" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="G778" s="32">
+      <c r="F778" t="s">
+        <v>78</v>
+      </c>
+      <c r="G778">
         <v>8</v>
       </c>
-      <c r="H778" s="32" t="s">
+      <c r="H778" t="s">
         <v>80</v>
       </c>
-      <c r="I778" s="33"/>
+      <c r="I778" s="32"/>
       <c r="J778" t="s">
         <v>1025</v>
       </c>
@@ -39412,31 +39426,31 @@
       </c>
     </row>
     <row r="779" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A779" s="32" t="s">
+      <c r="A779" t="s">
         <v>998</v>
       </c>
-      <c r="B779" s="32" t="s">
+      <c r="B779" t="s">
         <v>418</v>
       </c>
-      <c r="C779" s="32" t="s">
+      <c r="C779" t="s">
         <v>74</v>
       </c>
-      <c r="D779" s="32" t="s">
+      <c r="D779" t="s">
         <v>28</v>
       </c>
-      <c r="E779" s="32">
-        <v>0</v>
-      </c>
-      <c r="F779" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="G779" s="32">
+      <c r="E779">
+        <v>0</v>
+      </c>
+      <c r="F779" t="s">
+        <v>78</v>
+      </c>
+      <c r="G779">
         <v>19.48</v>
       </c>
-      <c r="H779" s="32" t="s">
+      <c r="H779" t="s">
         <v>80</v>
       </c>
-      <c r="I779" s="33"/>
+      <c r="I779" s="32"/>
       <c r="J779" t="s">
         <v>1026</v>
       </c>
@@ -39445,31 +39459,31 @@
       </c>
     </row>
     <row r="780" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A780" s="32" t="s">
+      <c r="A780" t="s">
         <v>998</v>
       </c>
-      <c r="B780" s="32" t="s">
+      <c r="B780" t="s">
         <v>418</v>
       </c>
-      <c r="C780" s="32" t="s">
+      <c r="C780" t="s">
         <v>1017</v>
       </c>
-      <c r="D780" s="32" t="s">
+      <c r="D780" t="s">
         <v>28</v>
       </c>
-      <c r="E780" s="32">
+      <c r="E780">
         <v>6.62</v>
       </c>
-      <c r="F780" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="G780" s="32">
+      <c r="F780" t="s">
+        <v>78</v>
+      </c>
+      <c r="G780">
         <v>21.62</v>
       </c>
-      <c r="H780" s="32" t="s">
+      <c r="H780" t="s">
         <v>80</v>
       </c>
-      <c r="I780" s="33"/>
+      <c r="I780" s="32"/>
       <c r="J780" t="s">
         <v>1027</v>
       </c>
@@ -39478,31 +39492,31 @@
       </c>
     </row>
     <row r="781" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A781" s="32" t="s">
+      <c r="A781" t="s">
         <v>998</v>
       </c>
-      <c r="B781" s="32" t="s">
+      <c r="B781" t="s">
         <v>418</v>
       </c>
-      <c r="C781" s="32" t="s">
+      <c r="C781" t="s">
         <v>34</v>
       </c>
-      <c r="D781" s="32" t="s">
+      <c r="D781" t="s">
         <v>28</v>
       </c>
-      <c r="E781" s="32">
+      <c r="E781">
         <v>3.44</v>
       </c>
-      <c r="F781" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="G781" s="32">
+      <c r="F781" t="s">
+        <v>78</v>
+      </c>
+      <c r="G781">
         <v>39.39</v>
       </c>
-      <c r="H781" s="32" t="s">
+      <c r="H781" t="s">
         <v>80</v>
       </c>
-      <c r="I781" s="33"/>
+      <c r="I781" s="32"/>
       <c r="J781" t="s">
         <v>1028</v>
       </c>
@@ -39511,31 +39525,31 @@
       </c>
     </row>
     <row r="782" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A782" s="32" t="s">
+      <c r="A782" t="s">
         <v>998</v>
       </c>
-      <c r="B782" s="32" t="s">
+      <c r="B782" t="s">
         <v>418</v>
       </c>
-      <c r="C782" s="32" t="s">
+      <c r="C782" t="s">
         <v>16</v>
       </c>
-      <c r="D782" s="32" t="s">
+      <c r="D782" t="s">
         <v>14</v>
       </c>
-      <c r="E782" s="32">
+      <c r="E782">
         <v>7</v>
       </c>
-      <c r="F782" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="G782" s="32">
+      <c r="F782" t="s">
+        <v>78</v>
+      </c>
+      <c r="G782">
         <v>16.2</v>
       </c>
-      <c r="H782" s="32" t="s">
+      <c r="H782" t="s">
         <v>80</v>
       </c>
-      <c r="I782" s="33"/>
+      <c r="I782" s="32"/>
       <c r="J782" t="s">
         <v>1005</v>
       </c>
@@ -39544,31 +39558,31 @@
       </c>
     </row>
     <row r="783" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A783" s="32" t="s">
+      <c r="A783" t="s">
         <v>998</v>
       </c>
-      <c r="B783" s="32" t="s">
+      <c r="B783" t="s">
         <v>418</v>
       </c>
-      <c r="C783" s="32" t="s">
+      <c r="C783" t="s">
         <v>238</v>
       </c>
-      <c r="D783" s="32" t="s">
+      <c r="D783" t="s">
         <v>14</v>
       </c>
-      <c r="E783" s="32">
+      <c r="E783">
         <v>19.29</v>
       </c>
-      <c r="F783" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="G783" s="32">
+      <c r="F783" t="s">
+        <v>78</v>
+      </c>
+      <c r="G783">
         <v>42.3</v>
       </c>
-      <c r="H783" s="32" t="s">
+      <c r="H783" t="s">
         <v>80</v>
       </c>
-      <c r="I783" s="33"/>
+      <c r="I783" s="32"/>
       <c r="J783" t="s">
         <v>1006</v>
       </c>
@@ -39577,28 +39591,28 @@
       </c>
     </row>
     <row r="784" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A784" s="32" t="s">
+      <c r="A784" t="s">
         <v>998</v>
       </c>
-      <c r="B784" s="32" t="s">
+      <c r="B784" t="s">
         <v>422</v>
       </c>
-      <c r="C784" s="32" t="s">
+      <c r="C784" t="s">
         <v>85</v>
       </c>
-      <c r="D784" s="32" t="s">
+      <c r="D784" t="s">
         <v>28</v>
       </c>
-      <c r="E784" s="32">
+      <c r="E784">
         <v>0.91</v>
       </c>
-      <c r="F784" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="G784" s="32">
+      <c r="F784" t="s">
+        <v>78</v>
+      </c>
+      <c r="G784">
         <v>30.01</v>
       </c>
-      <c r="H784" s="32" t="s">
+      <c r="H784" t="s">
         <v>80</v>
       </c>
       <c r="J784" t="s">
@@ -39609,28 +39623,28 @@
       </c>
     </row>
     <row r="785" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A785" s="32" t="s">
+      <c r="A785" t="s">
         <v>998</v>
       </c>
-      <c r="B785" s="32" t="s">
+      <c r="B785" t="s">
         <v>422</v>
       </c>
-      <c r="C785" s="32" t="s">
+      <c r="C785" t="s">
         <v>34</v>
       </c>
-      <c r="D785" s="32" t="s">
+      <c r="D785" t="s">
         <v>28</v>
       </c>
-      <c r="E785" s="32">
+      <c r="E785">
         <v>3.89</v>
       </c>
-      <c r="F785" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="G785" s="32">
-        <v>38.409999999999997</v>
-      </c>
-      <c r="H785" s="32" t="s">
+      <c r="F785" t="s">
+        <v>78</v>
+      </c>
+      <c r="G785" s="19" t="s">
+        <v>1041</v>
+      </c>
+      <c r="H785" t="s">
         <v>80</v>
       </c>
       <c r="J785" t="s">
@@ -39641,28 +39655,28 @@
       </c>
     </row>
     <row r="786" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A786" s="32" t="s">
+      <c r="A786" t="s">
         <v>998</v>
       </c>
-      <c r="B786" s="32" t="s">
+      <c r="B786" t="s">
         <v>422</v>
       </c>
-      <c r="C786" s="32" t="s">
+      <c r="C786" t="s">
         <v>516</v>
       </c>
-      <c r="D786" s="32" t="s">
+      <c r="D786" t="s">
         <v>14</v>
       </c>
-      <c r="E786" s="32">
+      <c r="E786">
         <v>31.97</v>
       </c>
-      <c r="F786" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="G786" s="32">
+      <c r="F786" t="s">
+        <v>78</v>
+      </c>
+      <c r="G786">
         <v>58.18</v>
       </c>
-      <c r="H786" s="32" t="s">
+      <c r="H786" t="s">
         <v>80</v>
       </c>
       <c r="J786" t="s">
@@ -39673,28 +39687,28 @@
       </c>
     </row>
     <row r="787" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A787" s="32" t="s">
+      <c r="A787" t="s">
         <v>998</v>
       </c>
-      <c r="B787" s="32" t="s">
+      <c r="B787" t="s">
         <v>422</v>
       </c>
-      <c r="C787" s="32" t="s">
+      <c r="C787" t="s">
         <v>133</v>
       </c>
-      <c r="D787" s="32" t="s">
+      <c r="D787" t="s">
         <v>14</v>
       </c>
-      <c r="E787" s="32">
+      <c r="E787">
         <v>3.56</v>
       </c>
-      <c r="F787" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="G787" s="32">
+      <c r="F787" t="s">
+        <v>78</v>
+      </c>
+      <c r="G787">
         <v>31.95</v>
       </c>
-      <c r="H787" s="32" t="s">
+      <c r="H787" t="s">
         <v>80</v>
       </c>
       <c r="J787" t="s">
@@ -39705,28 +39719,28 @@
       </c>
     </row>
     <row r="788" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A788" s="32" t="s">
+      <c r="A788" t="s">
         <v>998</v>
       </c>
-      <c r="B788" s="32" t="s">
+      <c r="B788" t="s">
         <v>422</v>
       </c>
-      <c r="C788" s="32" t="s">
+      <c r="C788" t="s">
         <v>87</v>
       </c>
-      <c r="D788" s="32" t="s">
+      <c r="D788" t="s">
         <v>14</v>
       </c>
-      <c r="E788" s="32">
+      <c r="E788">
         <v>3.02</v>
       </c>
-      <c r="F788" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="G788" s="32">
+      <c r="F788" t="s">
+        <v>78</v>
+      </c>
+      <c r="G788">
         <v>35.81</v>
       </c>
-      <c r="H788" s="32" t="s">
+      <c r="H788" t="s">
         <v>80</v>
       </c>
       <c r="J788" t="s">
@@ -39737,31 +39751,31 @@
       </c>
     </row>
     <row r="789" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A789" s="32" t="s">
+      <c r="A789" t="s">
         <v>998</v>
       </c>
-      <c r="B789" s="32" t="s">
+      <c r="B789" t="s">
         <v>425</v>
       </c>
-      <c r="C789" s="32" t="s">
+      <c r="C789" t="s">
         <v>689</v>
       </c>
-      <c r="D789" s="32" t="s">
+      <c r="D789" t="s">
         <v>28</v>
       </c>
-      <c r="E789" s="32">
-        <v>17.809999999999999</v>
-      </c>
-      <c r="F789" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="G789" s="32">
+      <c r="E789" s="19" t="s">
+        <v>1043</v>
+      </c>
+      <c r="F789" t="s">
+        <v>78</v>
+      </c>
+      <c r="G789">
         <v>44.9</v>
       </c>
-      <c r="H789" s="32" t="s">
+      <c r="H789" t="s">
         <v>80</v>
       </c>
-      <c r="I789" s="33"/>
+      <c r="I789" s="32"/>
       <c r="J789" t="s">
         <v>1031</v>
       </c>
@@ -39770,31 +39784,31 @@
       </c>
     </row>
     <row r="790" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A790" s="32" t="s">
+      <c r="A790" t="s">
         <v>998</v>
       </c>
-      <c r="B790" s="32" t="s">
+      <c r="B790" t="s">
         <v>425</v>
       </c>
-      <c r="C790" s="32" t="s">
+      <c r="C790" t="s">
         <v>1017</v>
       </c>
-      <c r="D790" s="32" t="s">
+      <c r="D790" t="s">
         <v>28</v>
       </c>
-      <c r="E790" s="32">
+      <c r="E790">
         <v>5.8</v>
       </c>
-      <c r="F790" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="G790" s="32">
+      <c r="F790" t="s">
+        <v>78</v>
+      </c>
+      <c r="G790">
         <v>27.78</v>
       </c>
-      <c r="H790" s="32" t="s">
+      <c r="H790" t="s">
         <v>80</v>
       </c>
-      <c r="I790" s="33"/>
+      <c r="I790" s="32"/>
       <c r="J790" t="s">
         <v>1032</v>
       </c>
@@ -39803,31 +39817,31 @@
       </c>
     </row>
     <row r="791" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A791" s="32" t="s">
+      <c r="A791" t="s">
         <v>998</v>
       </c>
-      <c r="B791" s="32" t="s">
+      <c r="B791" t="s">
         <v>425</v>
       </c>
-      <c r="C791" s="32" t="s">
+      <c r="C791" t="s">
         <v>16</v>
       </c>
-      <c r="D791" s="32" t="s">
+      <c r="D791" t="s">
         <v>14</v>
       </c>
-      <c r="E791" s="32">
+      <c r="E791">
         <v>1.55</v>
       </c>
-      <c r="F791" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="G791" s="32">
+      <c r="F791" t="s">
+        <v>78</v>
+      </c>
+      <c r="G791">
         <v>10</v>
       </c>
-      <c r="H791" s="32" t="s">
+      <c r="H791" t="s">
         <v>80</v>
       </c>
-      <c r="I791" s="33"/>
+      <c r="I791" s="32"/>
       <c r="J791" t="s">
         <v>1010</v>
       </c>
@@ -39836,31 +39850,31 @@
       </c>
     </row>
     <row r="792" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A792" s="32" t="s">
+      <c r="A792" t="s">
         <v>998</v>
       </c>
-      <c r="B792" s="32" t="s">
+      <c r="B792" t="s">
         <v>425</v>
       </c>
-      <c r="C792" s="32" t="s">
+      <c r="C792" t="s">
         <v>683</v>
       </c>
-      <c r="D792" s="32" t="s">
+      <c r="D792" t="s">
         <v>14</v>
       </c>
-      <c r="E792" s="32">
+      <c r="E792">
         <v>55.56</v>
       </c>
-      <c r="F792" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="G792" s="32">
+      <c r="F792" t="s">
+        <v>78</v>
+      </c>
+      <c r="G792">
         <v>82.61</v>
       </c>
-      <c r="H792" s="32" t="s">
+      <c r="H792" t="s">
         <v>80</v>
       </c>
-      <c r="I792" s="33"/>
+      <c r="I792" s="32"/>
       <c r="J792" t="s">
         <v>1033</v>
       </c>
@@ -39869,31 +39883,31 @@
       </c>
     </row>
     <row r="793" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A793" s="32" t="s">
+      <c r="A793" t="s">
         <v>998</v>
       </c>
-      <c r="B793" s="32" t="s">
+      <c r="B793" t="s">
         <v>425</v>
       </c>
-      <c r="C793" s="32" t="s">
+      <c r="C793" t="s">
         <v>159</v>
       </c>
-      <c r="D793" s="32" t="s">
+      <c r="D793" t="s">
         <v>14</v>
       </c>
-      <c r="E793" s="32">
+      <c r="E793">
         <v>36.99</v>
       </c>
-      <c r="F793" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="G793" s="32">
+      <c r="F793" t="s">
+        <v>78</v>
+      </c>
+      <c r="G793">
         <v>76.47</v>
       </c>
-      <c r="H793" s="32" t="s">
+      <c r="H793" t="s">
         <v>80</v>
       </c>
-      <c r="I793" s="33"/>
+      <c r="I793" s="32"/>
       <c r="J793" t="s">
         <v>1011</v>
       </c>
@@ -39902,28 +39916,28 @@
       </c>
     </row>
     <row r="794" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A794" s="32" t="s">
+      <c r="A794" t="s">
         <v>998</v>
       </c>
-      <c r="B794" s="32" t="s">
+      <c r="B794" t="s">
         <v>423</v>
       </c>
-      <c r="C794" s="32" t="s">
+      <c r="C794" t="s">
         <v>684</v>
       </c>
-      <c r="D794" s="32" t="s">
+      <c r="D794" t="s">
         <v>28</v>
       </c>
-      <c r="E794" s="32">
+      <c r="E794">
         <v>21</v>
       </c>
-      <c r="F794" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="G794" s="32">
+      <c r="F794" t="s">
+        <v>78</v>
+      </c>
+      <c r="G794">
         <v>58.65</v>
       </c>
-      <c r="H794" s="32" t="s">
+      <c r="H794" t="s">
         <v>80</v>
       </c>
       <c r="J794" t="s">
@@ -39934,28 +39948,28 @@
       </c>
     </row>
     <row r="795" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A795" s="32" t="s">
+      <c r="A795" t="s">
         <v>998</v>
       </c>
-      <c r="B795" s="32" t="s">
+      <c r="B795" t="s">
         <v>423</v>
       </c>
-      <c r="C795" s="32" t="s">
+      <c r="C795" t="s">
         <v>683</v>
       </c>
-      <c r="D795" s="32" t="s">
+      <c r="D795" t="s">
         <v>14</v>
       </c>
-      <c r="E795" s="32">
+      <c r="E795">
         <v>52.22</v>
       </c>
-      <c r="F795" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="G795" s="32">
+      <c r="F795" t="s">
+        <v>78</v>
+      </c>
+      <c r="G795">
         <v>84.77</v>
       </c>
-      <c r="H795" s="32" t="s">
+      <c r="H795" t="s">
         <v>80</v>
       </c>
       <c r="J795" t="s">
@@ -39966,28 +39980,28 @@
       </c>
     </row>
     <row r="796" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A796" s="32" t="s">
+      <c r="A796" t="s">
         <v>998</v>
       </c>
-      <c r="B796" s="32" t="s">
+      <c r="B796" t="s">
         <v>423</v>
       </c>
-      <c r="C796" s="32" t="s">
+      <c r="C796" t="s">
         <v>90</v>
       </c>
-      <c r="D796" s="32" t="s">
+      <c r="D796" t="s">
         <v>14</v>
       </c>
-      <c r="E796" s="32">
+      <c r="E796">
         <v>4</v>
       </c>
-      <c r="F796" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="G796" s="32">
+      <c r="F796" t="s">
+        <v>78</v>
+      </c>
+      <c r="G796">
         <v>12</v>
       </c>
-      <c r="H796" s="32" t="s">
+      <c r="H796" t="s">
         <v>80</v>
       </c>
       <c r="J796" t="s">
@@ -39998,28 +40012,28 @@
       </c>
     </row>
     <row r="797" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A797" s="32" t="s">
+      <c r="A797" t="s">
         <v>998</v>
       </c>
-      <c r="B797" s="32" t="s">
+      <c r="B797" t="s">
         <v>423</v>
       </c>
-      <c r="C797" s="32" t="s">
+      <c r="C797" t="s">
         <v>13</v>
       </c>
-      <c r="D797" s="32" t="s">
+      <c r="D797" t="s">
         <v>14</v>
       </c>
-      <c r="E797" s="32">
+      <c r="E797">
         <v>17</v>
       </c>
-      <c r="F797" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="G797" s="32">
+      <c r="F797" t="s">
+        <v>78</v>
+      </c>
+      <c r="G797">
         <v>35</v>
       </c>
-      <c r="H797" s="32" t="s">
+      <c r="H797" t="s">
         <v>80</v>
       </c>
       <c r="J797" t="s">
@@ -40030,31 +40044,31 @@
       </c>
     </row>
     <row r="798" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A798" s="32" t="s">
+      <c r="A798" t="s">
         <v>998</v>
       </c>
-      <c r="B798" s="32" t="s">
+      <c r="B798" t="s">
         <v>424</v>
       </c>
-      <c r="C798" s="32" t="s">
+      <c r="C798" t="s">
         <v>684</v>
       </c>
-      <c r="D798" s="32" t="s">
+      <c r="D798" t="s">
         <v>28</v>
       </c>
-      <c r="E798" s="32">
+      <c r="E798">
         <v>27.18</v>
       </c>
-      <c r="F798" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="G798" s="32">
+      <c r="F798" t="s">
+        <v>78</v>
+      </c>
+      <c r="G798">
         <v>60</v>
       </c>
-      <c r="H798" s="32" t="s">
+      <c r="H798" t="s">
         <v>80</v>
       </c>
-      <c r="I798" s="33"/>
+      <c r="I798" s="32"/>
       <c r="J798" t="s">
         <v>1036</v>
       </c>
@@ -40063,31 +40077,31 @@
       </c>
     </row>
     <row r="799" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A799" s="32" t="s">
+      <c r="A799" t="s">
         <v>998</v>
       </c>
-      <c r="B799" s="32" t="s">
+      <c r="B799" t="s">
         <v>424</v>
       </c>
-      <c r="C799" s="32" t="s">
+      <c r="C799" t="s">
         <v>1018</v>
       </c>
-      <c r="D799" s="32" t="s">
+      <c r="D799" t="s">
         <v>28</v>
       </c>
-      <c r="E799" s="32">
+      <c r="E799">
         <v>0.31</v>
       </c>
-      <c r="F799" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="G799" s="32">
-        <v>35.380000000000003</v>
-      </c>
-      <c r="H799" s="32" t="s">
+      <c r="F799" t="s">
+        <v>78</v>
+      </c>
+      <c r="G799" s="19" t="s">
+        <v>1042</v>
+      </c>
+      <c r="H799" t="s">
         <v>80</v>
       </c>
-      <c r="I799" s="33"/>
+      <c r="I799" s="32"/>
       <c r="J799" t="s">
         <v>1037</v>
       </c>
@@ -40096,31 +40110,31 @@
       </c>
     </row>
     <row r="800" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A800" s="32" t="s">
+      <c r="A800" t="s">
         <v>998</v>
       </c>
-      <c r="B800" s="32" t="s">
+      <c r="B800" t="s">
         <v>424</v>
       </c>
-      <c r="C800" s="32" t="s">
+      <c r="C800" t="s">
         <v>689</v>
       </c>
-      <c r="D800" s="32" t="s">
+      <c r="D800" t="s">
         <v>28</v>
       </c>
-      <c r="E800" s="32">
+      <c r="E800">
         <v>18.18</v>
       </c>
-      <c r="F800" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="G800" s="32">
+      <c r="F800" t="s">
+        <v>78</v>
+      </c>
+      <c r="G800">
         <v>42.86</v>
       </c>
-      <c r="H800" s="32" t="s">
+      <c r="H800" t="s">
         <v>80</v>
       </c>
-      <c r="I800" s="33"/>
+      <c r="I800" s="32"/>
       <c r="J800" t="s">
         <v>1038</v>
       </c>
@@ -40129,31 +40143,31 @@
       </c>
     </row>
     <row r="801" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A801" s="32" t="s">
+      <c r="A801" t="s">
         <v>998</v>
       </c>
-      <c r="B801" s="32" t="s">
+      <c r="B801" t="s">
         <v>424</v>
       </c>
-      <c r="C801" s="32" t="s">
+      <c r="C801" t="s">
         <v>683</v>
       </c>
-      <c r="D801" s="32" t="s">
+      <c r="D801" t="s">
         <v>14</v>
       </c>
-      <c r="E801" s="32">
+      <c r="E801">
         <v>50</v>
       </c>
-      <c r="F801" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="G801" s="32">
+      <c r="F801" t="s">
+        <v>78</v>
+      </c>
+      <c r="G801">
         <v>82.19</v>
       </c>
-      <c r="H801" s="32" t="s">
+      <c r="H801" t="s">
         <v>80</v>
       </c>
-      <c r="I801" s="33"/>
+      <c r="I801" s="32"/>
       <c r="J801" t="s">
         <v>1013</v>
       </c>
@@ -40162,31 +40176,31 @@
       </c>
     </row>
     <row r="802" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A802" s="32" t="s">
+      <c r="A802" t="s">
         <v>998</v>
       </c>
-      <c r="B802" s="32" t="s">
+      <c r="B802" t="s">
         <v>424</v>
       </c>
-      <c r="C802" s="32" t="s">
+      <c r="C802" t="s">
         <v>90</v>
       </c>
-      <c r="D802" s="32" t="s">
+      <c r="D802" t="s">
         <v>14</v>
       </c>
-      <c r="E802" s="32">
+      <c r="E802">
         <v>2</v>
       </c>
-      <c r="F802" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="G802" s="32">
+      <c r="F802" t="s">
+        <v>78</v>
+      </c>
+      <c r="G802">
         <v>12</v>
       </c>
-      <c r="H802" s="32" t="s">
+      <c r="H802" t="s">
         <v>80</v>
       </c>
-      <c r="I802" s="33"/>
+      <c r="I802" s="32"/>
       <c r="J802" t="s">
         <v>1014</v>
       </c>
@@ -40688,7 +40702,7 @@
   </sheetPr>
   <dimension ref="A1:Z110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="6" ySplit="1" topLeftCell="G89" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -47143,7 +47157,7 @@
       <c r="C104" t="s">
         <v>100</v>
       </c>
-      <c r="D104" s="32">
+      <c r="D104">
         <v>6</v>
       </c>
       <c r="E104" t="s">
@@ -47205,7 +47219,7 @@
       <c r="C105" t="s">
         <v>100</v>
       </c>
-      <c r="D105" s="32">
+      <c r="D105">
         <v>4</v>
       </c>
       <c r="E105" t="s">
@@ -47267,7 +47281,7 @@
       <c r="C106" t="s">
         <v>100</v>
       </c>
-      <c r="D106" s="32">
+      <c r="D106">
         <v>6</v>
       </c>
       <c r="E106" t="s">
@@ -47329,7 +47343,7 @@
       <c r="C107" t="s">
         <v>100</v>
       </c>
-      <c r="D107" s="32">
+      <c r="D107">
         <v>5</v>
       </c>
       <c r="E107" t="s">
@@ -47391,7 +47405,7 @@
       <c r="C108" t="s">
         <v>100</v>
       </c>
-      <c r="D108" s="32">
+      <c r="D108">
         <v>4</v>
       </c>
       <c r="E108" t="s">
@@ -47453,7 +47467,7 @@
       <c r="C109" t="s">
         <v>100</v>
       </c>
-      <c r="D109" s="32">
+      <c r="D109">
         <v>5</v>
       </c>
       <c r="E109" t="s">
@@ -47515,7 +47529,7 @@
       <c r="C110" t="s">
         <v>100</v>
       </c>
-      <c r="D110" s="32">
+      <c r="D110">
         <v>5</v>
       </c>
       <c r="E110" t="s">
@@ -50431,9 +50445,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -50660,27 +50677,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFD8027B-57D9-4B92-B1B3-871595BA197C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{499CACD6-B6F0-4CF9-927E-84E37D5EF230}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="c0f75fa0-0a50-44a1-84b6-f6a4c66e6868"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="9bb5d252-d316-43f0-83d0-ec4a335d3ce7"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -50705,9 +50710,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{499CACD6-B6F0-4CF9-927E-84E37D5EF230}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFD8027B-57D9-4B92-B1B3-871595BA197C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="c0f75fa0-0a50-44a1-84b6-f6a4c66e6868"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="9bb5d252-d316-43f0-83d0-ec4a335d3ce7"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>